--- a/data/data_quarter_new.xlsx
+++ b/data/data_quarter_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\DNS\balance_of_payments_model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD45EF5-BC80-4649-AF14-6B83CE612E72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEB57B5-D78C-431E-8AEE-934DEE06D122}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4D6FCDA9-F986-4B56-9356-AA8DCBE05902}"/>
   </bookViews>
@@ -161,7 +161,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,8 +180,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,6 +223,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -225,10 +245,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -245,9 +266,19 @@
     <xf numFmtId="3" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный_Лист1" xfId="1" xr:uid="{C2968A1D-AA9A-4AD8-98BC-ECFDEBA93DB0}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -561,14 +592,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{849A7E3F-C9C5-4B1C-8D83-A718E642E720}">
   <dimension ref="A1:AL57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AK2" sqref="AK2:AK57"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="98" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="12.7265625" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="12.7265625" customWidth="1"/>
   </cols>
@@ -638,13 +673,13 @@
         <v>20</v>
       </c>
       <c r="V1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="Y1" s="3" t="s">
         <v>24</v>
@@ -693,31 +728,31 @@
       <c r="A2" s="1">
         <v>38718</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="14">
         <v>23310.3</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="14">
         <v>61300</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="15">
         <v>380.26590538336052</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="14">
         <v>9538.2999999999993</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="14">
         <v>24000</v>
       </c>
-      <c r="G2">
-        <v>397.42916666666667</v>
-      </c>
-      <c r="H2">
+      <c r="G2" s="15">
+        <v>397.42916666666662</v>
+      </c>
+      <c r="H2" s="14">
         <v>12240.2</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="14">
         <v>59900</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="15">
         <v>204.34390651085144</v>
       </c>
       <c r="K2" s="4">
@@ -744,26 +779,26 @@
         <f>O2+P2</f>
         <v>39423.649999999994</v>
       </c>
-      <c r="R2">
-        <v>6809564.1368155042</v>
-      </c>
-      <c r="S2">
+      <c r="R2" s="12">
+        <v>6809564.1368155004</v>
+      </c>
+      <c r="S2" s="13">
         <v>3305903.7478928482</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="14">
         <v>1126079.6932790726</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="13">
         <v>1131553.8897671066</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="13">
+        <v>266861.62306363625</v>
+      </c>
+      <c r="W2" s="13">
         <v>2237473.3690645793</v>
       </c>
-      <c r="W2">
+      <c r="X2" s="13">
         <v>1258308.186251739</v>
-      </c>
-      <c r="X2">
-        <v>266861.62306363625</v>
       </c>
       <c r="Y2" s="4">
         <v>35668.93</v>
@@ -812,31 +847,31 @@
       <c r="A3" s="1">
         <v>38808</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="14">
         <v>27517.1</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="14">
         <v>63800</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="15">
         <v>431.30250783699057</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="14">
         <v>12085.4</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="14">
         <v>27000</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="15">
         <v>447.60740740740738</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="14">
         <v>10062.4</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="14">
         <v>46300</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="15">
         <v>217.33045356371491</v>
       </c>
       <c r="K3" s="9">
@@ -863,26 +898,26 @@
         <f>O3+P3</f>
         <v>49844.11</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="12">
         <v>6984854.5372834802</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="13">
         <v>3501854.7625491722</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="14">
         <v>1188123.0440010154</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="13">
         <v>1249420.3929422444</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="13">
+        <v>127263.0929217646</v>
+      </c>
+      <c r="W3" s="13">
         <v>2258247.671987087</v>
       </c>
-      <c r="W3">
+      <c r="X3" s="13">
         <v>1340054.4271178029</v>
-      </c>
-      <c r="X3">
-        <v>127263.0929217646</v>
       </c>
       <c r="Y3" s="5">
         <v>36800.949999999997</v>
@@ -931,38 +966,38 @@
       <c r="A4" s="1">
         <v>38899</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="14">
         <v>27922.3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="14">
         <v>62100</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="15">
         <v>449.63446054750398</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="14">
         <v>12528.6</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="14">
         <v>26700</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="15">
         <v>469.23595505617982</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="14">
         <v>10172.299999999999</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="14">
         <v>45100</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="15">
         <v>225.54988913525497</v>
       </c>
       <c r="K4" s="9">
         <v>78726.47</v>
       </c>
       <c r="L4" s="11">
-        <f t="shared" ref="L4:L57" si="1">K4-E4-H4-B4</f>
+        <f>K4-E4-H4-B4</f>
         <v>28103.269999999993</v>
       </c>
       <c r="M4" s="9">
@@ -979,29 +1014,29 @@
         <v>13521.55</v>
       </c>
       <c r="Q4" s="11">
-        <f t="shared" ref="Q4:Q57" si="2">O4+P4</f>
+        <f t="shared" ref="Q4:Q57" si="1">O4+P4</f>
         <v>55582.5</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="12">
         <v>7402485.0415303865</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="13">
         <v>3687426.0103104068</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="14">
         <v>1251799.8993320628</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="13">
         <v>1354263.5636822558</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="13">
+        <v>211751.65481837143</v>
+      </c>
+      <c r="W4" s="13">
         <v>2290409.0424070777</v>
       </c>
-      <c r="W4">
+      <c r="X4" s="13">
         <v>1393165.1290197882</v>
-      </c>
-      <c r="X4">
-        <v>211751.65481837143</v>
       </c>
       <c r="Y4" s="5">
         <v>36665.519999999997</v>
@@ -1050,38 +1085,38 @@
       <c r="A5" s="1">
         <v>38991</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="14">
         <v>23533.200000000001</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="14">
         <v>61300</v>
       </c>
-      <c r="D5">
-        <v>383.90212071778149</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="15">
+        <v>383.90212071778143</v>
+      </c>
+      <c r="E5" s="14">
         <v>10519.5</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="14">
         <v>25800</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="15">
         <v>407.73255813953489</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="14">
         <v>11331.3</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="14">
         <v>51500</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="15">
         <v>220.02524271844658</v>
       </c>
       <c r="K5" s="9">
         <v>76784.759999999995</v>
       </c>
       <c r="L5" s="11">
-        <f t="shared" si="1"/>
+        <f>K5-E5-H5-B5</f>
         <v>31400.759999999991</v>
       </c>
       <c r="M5" s="9">
@@ -1098,29 +1133,29 @@
         <v>12984.08</v>
       </c>
       <c r="Q5" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>64610.12</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="12">
         <v>7634010.7165135248</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="13">
         <v>3882195.2372466642</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="14">
         <v>1304906.3715334602</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="13">
         <v>1471547.5047999704</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="13">
+        <v>270686.54720026214</v>
+      </c>
+      <c r="W5" s="13">
         <v>2242462.1840689518</v>
       </c>
-      <c r="W5">
+      <c r="X5" s="13">
         <v>1537787.128335784</v>
-      </c>
-      <c r="X5">
-        <v>270686.54720026214</v>
       </c>
       <c r="Y5" s="5">
         <v>25158.720000000001</v>
@@ -1169,38 +1204,38 @@
       <c r="A6" s="1">
         <v>39083</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="14">
         <v>23382.2</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="14">
         <v>63100</v>
       </c>
-      <c r="D6">
-        <v>370.55784469096676</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="15">
+        <v>370.5578446909667</v>
+      </c>
+      <c r="E6" s="14">
         <v>9959.4</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="14">
         <v>25400</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="15">
         <v>392.10236220472444</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="14">
         <v>10542.4</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="14">
         <v>48800</v>
       </c>
-      <c r="J6">
-        <v>216.03278688524588</v>
+      <c r="J6" s="15">
+        <v>216.03278688524591</v>
       </c>
       <c r="K6" s="9">
         <v>70175.789999999994</v>
       </c>
       <c r="L6" s="11">
-        <f t="shared" si="1"/>
+        <f>K6-E6-H6-B6</f>
         <v>26291.78999999999</v>
       </c>
       <c r="M6" s="9">
@@ -1217,29 +1252,29 @@
         <v>11160.13</v>
       </c>
       <c r="Q6" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>53771.78</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="12">
         <v>7970137.0229826998</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="13">
         <v>3995513.4499636111</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="14">
         <v>1371806.1905419247</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="13">
         <v>1529681.3489996125</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="13">
+        <v>414576.61716616258</v>
+      </c>
+      <c r="W6" s="13">
         <v>2262745.1367213754</v>
       </c>
-      <c r="W6">
+      <c r="X6" s="13">
         <v>1604185.7204099866</v>
-      </c>
-      <c r="X6">
-        <v>414576.61716616258</v>
       </c>
       <c r="Y6" s="5">
         <v>27564.13</v>
@@ -1288,38 +1323,38 @@
       <c r="A7" s="1">
         <v>39173</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="14">
         <v>28965.200000000001</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="14">
         <v>66100</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="15">
         <v>438.20272314674742</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="14">
         <v>11900.1</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="14">
         <v>28100</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="15">
         <v>423.49110320284694</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="14">
         <v>9850.1</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="14">
         <v>44300</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="15">
         <v>222.34988713318288</v>
       </c>
       <c r="K7" s="9">
         <v>81869.7</v>
       </c>
       <c r="L7" s="11">
-        <f t="shared" si="1"/>
+        <f>K7-E7-H7-B7</f>
         <v>31154.299999999992</v>
       </c>
       <c r="M7" s="9">
@@ -1336,29 +1371,29 @@
         <v>14288.8</v>
       </c>
       <c r="Q7" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>66977.37</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="12">
         <v>8519787.3177791536</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="13">
         <v>4285663.402584414</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="14">
         <v>1447323.9346507394</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="13">
         <v>1716517.2916315817</v>
       </c>
-      <c r="V7">
+      <c r="V7" s="13">
+        <v>407535.07413090963</v>
+      </c>
+      <c r="W7" s="13">
         <v>2373493.5880477726</v>
       </c>
-      <c r="W7">
+      <c r="X7" s="13">
         <v>1710745.9732662642</v>
-      </c>
-      <c r="X7">
-        <v>407535.07413090963</v>
       </c>
       <c r="Y7" s="5">
         <v>29181.13</v>
@@ -1407,38 +1442,38 @@
       <c r="A8" s="1">
         <v>39264</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="14">
         <v>31523</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="14">
         <v>63800</v>
       </c>
-      <c r="D8">
-        <v>494.09090909090907</v>
-      </c>
-      <c r="E8">
+      <c r="D8" s="15">
+        <v>494.09090909090912</v>
+      </c>
+      <c r="E8" s="14">
         <v>14050</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="14">
         <v>29100</v>
       </c>
-      <c r="G8">
-        <v>482.81786941580759</v>
-      </c>
-      <c r="H8">
+      <c r="G8" s="15">
+        <v>482.81786941580754</v>
+      </c>
+      <c r="H8" s="14">
         <v>9873.7999999999993</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="14">
         <v>42500</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="15">
         <v>232.32470588235293</v>
       </c>
       <c r="K8" s="9">
         <v>87081.22</v>
       </c>
       <c r="L8" s="11">
-        <f t="shared" si="1"/>
+        <f>K8-E8-H8-B8</f>
         <v>31634.42</v>
       </c>
       <c r="M8" s="9">
@@ -1455,29 +1490,29 @@
         <v>17442.39</v>
       </c>
       <c r="Q8" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>75461.850000000006</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="12">
         <v>9057712.3586729411</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="13">
         <v>4580577.9951825459</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="14">
         <v>1531050.8349894017</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="13">
         <v>1810398.5475841218</v>
       </c>
-      <c r="V8">
+      <c r="V8" s="13">
+        <v>452331.74627748987</v>
+      </c>
+      <c r="W8" s="13">
         <v>2468427.6068708515</v>
       </c>
-      <c r="W8">
+      <c r="X8" s="13">
         <v>1785074.3722314697</v>
-      </c>
-      <c r="X8">
-        <v>452331.74627748987</v>
       </c>
       <c r="Y8" s="5">
         <v>29061.77</v>
@@ -1526,38 +1561,38 @@
       <c r="A9" s="1">
         <v>39356</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="14">
         <v>37632.400000000001</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="14">
         <v>65600</v>
       </c>
-      <c r="D9">
-        <v>573.66463414634165</v>
-      </c>
-      <c r="E9">
-        <v>16318.000000000002</v>
-      </c>
-      <c r="F9">
+      <c r="D9" s="15">
+        <v>573.66463414634154</v>
+      </c>
+      <c r="E9" s="14">
+        <v>16318</v>
+      </c>
+      <c r="F9" s="14">
         <v>29700</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="15">
         <v>549.42760942760947</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="14">
         <v>14571.1</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="14">
         <v>56200</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="15">
         <v>259.27224199288253</v>
       </c>
       <c r="K9" s="9">
         <v>107403.79</v>
       </c>
       <c r="L9" s="11">
-        <f t="shared" si="1"/>
+        <f>K9-E9-H9-B9</f>
         <v>38882.289999999986</v>
       </c>
       <c r="M9" s="9">
@@ -1574,29 +1609,29 @@
         <v>17686.599999999999</v>
       </c>
       <c r="Q9" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>87450.450000000012</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="12">
         <v>9998315.9752527326</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="13">
         <v>4886886.9343039887</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="14">
         <v>1636658.5738972099</v>
       </c>
-      <c r="U9">
+      <c r="U9" s="13">
         <v>2183663.7055638409</v>
       </c>
-      <c r="V9">
+      <c r="V9" s="13">
+        <v>362556.11711365875</v>
+      </c>
+      <c r="W9" s="13">
         <v>2837778.3057498597</v>
       </c>
-      <c r="W9">
+      <c r="X9" s="13">
         <v>1909227.6613758258</v>
-      </c>
-      <c r="X9">
-        <v>362556.11711365875</v>
       </c>
       <c r="Y9" s="5">
         <v>37639.949999999997</v>
@@ -1645,38 +1680,38 @@
       <c r="A10" s="1">
         <v>39448</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="14">
         <v>38623.300000000003</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="14">
         <v>61200</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="15">
         <v>631.09967320261444</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="14">
         <v>17628.5</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="14">
         <v>28100</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="15">
         <v>627.34875444839849</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="14">
         <v>17947.900000000001</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="14">
         <v>59800</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="15">
         <v>300.13210702341144</v>
       </c>
       <c r="K10" s="9">
         <v>108371.77</v>
       </c>
       <c r="L10" s="11">
-        <f t="shared" si="1"/>
+        <f>K10-E10-H10-B10</f>
         <v>34172.069999999992</v>
       </c>
       <c r="M10" s="9">
@@ -1693,29 +1728,29 @@
         <v>15354.16</v>
       </c>
       <c r="Q10" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>75127.92</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="12">
         <v>10435751.961436762</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="13">
         <v>5051502.7082953705</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="14">
         <v>1739195.3183714012</v>
       </c>
-      <c r="U10">
+      <c r="U10" s="13">
         <v>2250766.4694050248</v>
       </c>
-      <c r="V10">
+      <c r="V10" s="13">
+        <v>301643.97262235841</v>
+      </c>
+      <c r="W10" s="13">
         <v>3169166.4341799379</v>
       </c>
-      <c r="W10">
+      <c r="X10" s="13">
         <v>2076522.9414373315</v>
-      </c>
-      <c r="X10">
-        <v>301643.97262235841</v>
       </c>
       <c r="Y10" s="5">
         <v>48598.01</v>
@@ -1764,38 +1799,38 @@
       <c r="A11" s="1">
         <v>39539</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="14">
         <v>47078.8</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="14">
         <v>61500</v>
       </c>
-      <c r="D11">
-        <v>765.508943089431</v>
-      </c>
-      <c r="E11">
+      <c r="D11" s="15">
+        <v>765.50894308943089</v>
+      </c>
+      <c r="E11" s="14">
         <v>20736.7</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="14">
         <v>28600</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="15">
         <v>725.05944055944053</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="14">
         <v>17233.3</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="14">
         <v>49600</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="15">
         <v>347.44556451612902</v>
       </c>
       <c r="K11" s="9">
         <v>126026.05</v>
       </c>
       <c r="L11" s="11">
-        <f t="shared" si="1"/>
+        <f>K11-E11-H11-B11</f>
         <v>40977.25</v>
       </c>
       <c r="M11" s="9">
@@ -1812,29 +1847,29 @@
         <v>20201.28</v>
       </c>
       <c r="Q11" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>95008.65</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="12">
         <v>11229885.870050635</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="13">
         <v>5407237.6095658662</v>
       </c>
-      <c r="T11">
+      <c r="T11" s="14">
         <v>1860903.3258683947</v>
       </c>
-      <c r="U11">
+      <c r="U11" s="13">
         <v>2429228.7294479255</v>
       </c>
-      <c r="V11">
+      <c r="V11" s="13">
+        <v>502842.91299925372</v>
+      </c>
+      <c r="W11" s="13">
         <v>3263097.3373655328</v>
       </c>
-      <c r="W11">
+      <c r="X11" s="13">
         <v>2233424.0451963381</v>
-      </c>
-      <c r="X11">
-        <v>502842.91299925372</v>
       </c>
       <c r="Y11" s="5">
         <v>51218.68</v>
@@ -1883,38 +1918,38 @@
       <c r="A12" s="1">
         <v>39630</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="14">
         <v>47730.2</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="14">
         <v>59400</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="15">
         <v>803.53872053872055</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="14">
         <v>26206.1</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="14">
         <v>31500</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="15">
         <v>831.93968253968251</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="14">
         <v>16169.4</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="14">
         <v>40800</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="15">
         <v>396.30882352941177</v>
       </c>
       <c r="K12" s="9">
         <v>134472.39000000001</v>
       </c>
       <c r="L12" s="11">
-        <f t="shared" si="1"/>
+        <f>K12-E12-H12-B12</f>
         <v>44366.690000000017</v>
       </c>
       <c r="M12" s="9">
@@ -1931,29 +1966,29 @@
         <v>23616.87</v>
       </c>
       <c r="Q12" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>106663.26999999999</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="12">
         <v>11742967.419300107</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="13">
         <v>5783931.4162162207</v>
       </c>
-      <c r="T12">
+      <c r="T12" s="14">
         <v>1973649.2392809649</v>
       </c>
-      <c r="U12">
+      <c r="U12" s="13">
         <v>2478854.938900291</v>
       </c>
-      <c r="V12">
+      <c r="V12" s="13">
+        <v>355420.83505053003</v>
+      </c>
+      <c r="W12" s="13">
         <v>3546091.2093076459</v>
       </c>
-      <c r="W12">
+      <c r="X12" s="13">
         <v>2394980.2194555462</v>
-      </c>
-      <c r="X12">
-        <v>355420.83505053003</v>
       </c>
       <c r="Y12" s="5">
         <v>51425.98</v>
@@ -2002,38 +2037,38 @@
       <c r="A13" s="1">
         <v>39722</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="14">
         <v>27714.6</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="14">
         <v>61000</v>
       </c>
-      <c r="D13">
-        <v>454.33770491803273</v>
-      </c>
-      <c r="E13">
+      <c r="D13" s="15">
+        <v>454.33770491803278</v>
+      </c>
+      <c r="E13" s="14">
         <v>15314.2</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="14">
         <v>29900</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="15">
         <v>512.18060200668901</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="14">
         <v>17756.400000000001</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="14">
         <v>45100</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="15">
         <v>393.71175166297121</v>
       </c>
       <c r="K13" s="9">
         <v>97427.78</v>
       </c>
       <c r="L13" s="11">
-        <f t="shared" si="1"/>
+        <f>K13-E13-H13-B13</f>
         <v>36642.58</v>
       </c>
       <c r="M13" s="9">
@@ -2050,29 +2085,29 @@
         <v>18383.169999999998</v>
       </c>
       <c r="Q13" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>89428.23</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="12">
         <v>10837104.982097704</v>
       </c>
-      <c r="S13">
+      <c r="S13" s="13">
         <v>5866596.7368544806</v>
       </c>
-      <c r="T13">
+      <c r="T13" s="14">
         <v>2088518.6584297002</v>
       </c>
-      <c r="U13">
+      <c r="U13" s="13">
         <v>2573734.5148636918</v>
       </c>
-      <c r="V13">
+      <c r="V13" s="13">
+        <v>-338571.27833001368</v>
+      </c>
+      <c r="W13" s="13">
         <v>2876456.2294820487</v>
       </c>
-      <c r="W13">
+      <c r="X13" s="13">
         <v>2229629.8792022034</v>
-      </c>
-      <c r="X13">
-        <v>-338571.27833001368</v>
       </c>
       <c r="Y13" s="5">
         <v>26382.73</v>
@@ -2121,38 +2156,38 @@
       <c r="A14" s="1">
         <v>39814</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="14">
         <v>17863.8</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="14">
         <v>60500</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="15">
         <v>295.26942148760327</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="14">
         <v>9174</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="14">
         <v>31300</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="15">
         <v>293.09904153354631</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="14">
         <v>7807.2</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="14">
         <v>25100</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="15">
         <v>311.04382470119521</v>
       </c>
       <c r="K14" s="9">
         <v>57755.12</v>
       </c>
       <c r="L14" s="11">
-        <f t="shared" si="1"/>
+        <f>K14-E14-H14-B14</f>
         <v>22910.120000000006</v>
       </c>
       <c r="M14" s="9">
@@ -2169,29 +2204,29 @@
         <v>12516.3</v>
       </c>
       <c r="Q14" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>50237.509999999995</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="12">
         <v>9756604.7594342772</v>
       </c>
-      <c r="S14">
+      <c r="S14" s="13">
         <v>5748012.7917316081</v>
       </c>
-      <c r="T14">
+      <c r="T14" s="14">
         <v>1977891.8768890116</v>
       </c>
-      <c r="U14">
+      <c r="U14" s="13">
         <v>2294895.5081273727</v>
       </c>
-      <c r="V14">
+      <c r="V14" s="13">
+        <v>-591218.54487581819</v>
+      </c>
+      <c r="W14" s="13">
         <v>2339265.6593507016</v>
       </c>
-      <c r="W14">
+      <c r="X14" s="13">
         <v>2012242.531788599</v>
-      </c>
-      <c r="X14">
-        <v>-591218.54487581819</v>
       </c>
       <c r="Y14" s="5">
         <v>20033.91</v>
@@ -2240,38 +2275,38 @@
       <c r="A15" s="1">
         <v>39904</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="14">
         <v>22875.4</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="14">
         <v>62400</v>
       </c>
-      <c r="D15">
-        <v>366.59294871794879</v>
-      </c>
-      <c r="E15">
+      <c r="D15" s="15">
+        <v>366.59294871794873</v>
+      </c>
+      <c r="E15" s="14">
         <v>9583.6</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="14">
         <v>28800</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="15">
         <v>332.76388888888891</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="14">
         <v>9554.2999999999993</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="14">
         <v>37300</v>
       </c>
-      <c r="J15">
-        <v>256.14745308310995</v>
+      <c r="J15" s="15">
+        <v>256.14745308310989</v>
       </c>
       <c r="K15" s="9">
         <v>63567.02</v>
       </c>
       <c r="L15" s="11">
-        <f t="shared" si="1"/>
+        <f>K15-E15-H15-B15</f>
         <v>21553.719999999994</v>
       </c>
       <c r="M15" s="9">
@@ -2288,29 +2323,29 @@
         <v>15295.38</v>
       </c>
       <c r="Q15" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>57224.729999999996</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="12">
         <v>10209464.828183927</v>
       </c>
-      <c r="S15">
+      <c r="S15" s="13">
         <v>5766429.894263397</v>
       </c>
-      <c r="T15">
+      <c r="T15" s="14">
         <v>2073525.6512674196</v>
       </c>
-      <c r="U15">
+      <c r="U15" s="13">
         <v>2203141.2903060862</v>
       </c>
-      <c r="V15">
+      <c r="V15" s="13">
+        <v>-491956.92586040811</v>
+      </c>
+      <c r="W15" s="13">
         <v>2551699.0764945922</v>
       </c>
-      <c r="W15">
+      <c r="X15" s="13">
         <v>1893374.1582871596</v>
-      </c>
-      <c r="X15">
-        <v>-491956.92586040811</v>
       </c>
       <c r="Y15" s="5">
         <v>21637.67</v>
@@ -2359,38 +2394,38 @@
       <c r="A16" s="1">
         <v>39995</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="14">
         <v>28402.9</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="14">
         <v>61300</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="15">
         <v>463.34257748776514</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="14">
         <v>13823.2</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="14">
         <v>31800</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="15">
         <v>434.69182389937106</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="14">
         <v>10533.9</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="14">
         <v>46900</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="15">
         <v>224.60341151385927</v>
       </c>
       <c r="K16" s="9">
         <v>81584.639999999999</v>
       </c>
       <c r="L16" s="11">
-        <f t="shared" si="1"/>
+        <f>K16-E16-H16-B16</f>
         <v>28824.639999999999</v>
       </c>
       <c r="M16" s="9">
@@ -2407,29 +2442,29 @@
         <v>18218.419999999998</v>
       </c>
       <c r="Q16" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>65061.07</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="12">
         <v>10829004.697822137</v>
       </c>
-      <c r="S16">
+      <c r="S16" s="13">
         <v>5794727.1770663913</v>
       </c>
-      <c r="T16">
+      <c r="T16" s="14">
         <v>2129638.3000597581</v>
       </c>
-      <c r="U16">
+      <c r="U16" s="13">
         <v>2278783.0414384869</v>
       </c>
-      <c r="V16">
+      <c r="V16" s="13">
+        <v>-420698.7082725832</v>
+      </c>
+      <c r="W16" s="13">
         <v>2949963.7916900977</v>
       </c>
-      <c r="W16">
+      <c r="X16" s="13">
         <v>1903408.9041600146</v>
-      </c>
-      <c r="X16">
-        <v>-420698.7082725832</v>
       </c>
       <c r="Y16" s="5">
         <v>34741.99</v>
@@ -2478,38 +2513,38 @@
       <c r="A17" s="1">
         <v>40087</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="14">
         <v>31451</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="14">
         <v>63200</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="15">
         <v>497.64240506329111</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="14">
         <v>15564</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="14">
         <v>32600</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="15">
         <v>477.42331288343559</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="14">
         <v>14076</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="14">
         <v>59100</v>
       </c>
-      <c r="J17">
-        <v>238.17258883248732</v>
+      <c r="J17" s="15">
+        <v>238.17258883248729</v>
       </c>
       <c r="K17" s="9">
         <v>94247.86</v>
       </c>
       <c r="L17" s="11">
-        <f t="shared" si="1"/>
+        <f>K17-E17-H17-B17</f>
         <v>33156.86</v>
       </c>
       <c r="M17" s="9">
@@ -2526,29 +2561,29 @@
         <v>17366.650000000001</v>
       </c>
       <c r="Q17" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>74797.56</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="12">
         <v>10769140.940979591</v>
       </c>
-      <c r="S17">
+      <c r="S17" s="13">
         <v>5949951.3337051934</v>
       </c>
-      <c r="T17">
+      <c r="T17" s="14">
         <v>2207560.6333702337</v>
       </c>
-      <c r="U17">
+      <c r="U17" s="13">
         <v>2220554.4999993779</v>
       </c>
-      <c r="V17">
+      <c r="V17" s="13">
+        <v>-472883.38820470677</v>
+      </c>
+      <c r="W17" s="13">
         <v>2910350.019969773</v>
       </c>
-      <c r="W17">
+      <c r="X17" s="13">
         <v>2046392.15786028</v>
-      </c>
-      <c r="X17">
-        <v>-472883.38820470677</v>
       </c>
       <c r="Y17" s="5">
         <v>36816.949999999997</v>
@@ -2597,38 +2632,38 @@
       <c r="A18" s="1">
         <v>40179</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="14">
         <v>31394.1</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="14">
         <v>60700</v>
       </c>
-      <c r="D18">
-        <v>517.20098846787482</v>
-      </c>
-      <c r="E18">
+      <c r="D18" s="15">
+        <v>517.20098846787471</v>
+      </c>
+      <c r="E18" s="14">
         <v>16978.8</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="14">
         <v>32400</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="15">
         <v>524.03703703703707</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="14">
         <v>13572.9</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="14">
         <v>50400</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="15">
         <v>269.30357142857144</v>
       </c>
       <c r="K18" s="9">
         <v>90062.42</v>
       </c>
       <c r="L18" s="11">
-        <f t="shared" si="1"/>
+        <f>K18-E18-H18-B18</f>
         <v>28116.619999999995</v>
       </c>
       <c r="M18" s="9">
@@ -2645,29 +2680,29 @@
         <v>14316.41</v>
       </c>
       <c r="Q18" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>59133.39</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="12">
         <v>11701229.795593446</v>
       </c>
-      <c r="S18">
+      <c r="S18" s="13">
         <v>6258822.5900577921</v>
       </c>
-      <c r="T18">
+      <c r="T18" s="14">
         <v>2140231.7532184315</v>
       </c>
-      <c r="U18">
+      <c r="U18" s="13">
         <v>2395393.1627212032</v>
       </c>
-      <c r="V18">
+      <c r="V18" s="13">
+        <v>-189983.20043463446</v>
+      </c>
+      <c r="W18" s="13">
         <v>3189563.48265066</v>
       </c>
-      <c r="W18">
+      <c r="X18" s="13">
         <v>2092797.9926200055</v>
-      </c>
-      <c r="X18">
-        <v>-189983.20043463446</v>
       </c>
       <c r="Y18" s="5">
         <v>45245.440000000002</v>
@@ -2716,38 +2751,38 @@
       <c r="A19" s="1">
         <v>40269</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="14">
         <v>34063.5</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="14">
         <v>62700</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="15">
         <v>543.27751196172244</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="14">
         <v>17909.7</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="14">
         <v>33500</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="15">
         <v>534.61791044776123</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="14">
         <v>9822.5</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="14">
         <v>38200</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="15">
         <v>257.1335078534031</v>
       </c>
       <c r="K19" s="9">
         <v>95351.94</v>
       </c>
       <c r="L19" s="11">
-        <f t="shared" si="1"/>
+        <f>K19-E19-H19-B19</f>
         <v>33556.240000000005</v>
       </c>
       <c r="M19" s="9">
@@ -2764,29 +2799,29 @@
         <v>17671.89</v>
       </c>
       <c r="Q19" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>74955.260000000009</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="12">
         <v>12122414.26736922</v>
       </c>
-      <c r="S19">
+      <c r="S19" s="13">
         <v>6431989.6489225049</v>
       </c>
-      <c r="T19">
+      <c r="T19" s="14">
         <v>2212317.5119569586</v>
       </c>
-      <c r="U19">
+      <c r="U19" s="13">
         <v>2568729.6091208146</v>
       </c>
-      <c r="V19">
+      <c r="V19" s="13">
+        <v>-101942.48095427701</v>
+      </c>
+      <c r="W19" s="13">
         <v>3297924.1062015546</v>
       </c>
-      <c r="W19">
+      <c r="X19" s="13">
         <v>2286604.1278783348</v>
-      </c>
-      <c r="X19">
-        <v>-101942.48095427701</v>
       </c>
       <c r="Y19" s="5">
         <v>38068.559999999998</v>
@@ -2835,38 +2870,38 @@
       <c r="A20" s="1">
         <v>40360</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="14">
         <v>33473.1</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="14">
         <v>63600</v>
       </c>
-      <c r="D20">
-        <v>526.30660377358481</v>
-      </c>
-      <c r="E20">
-        <v>16243.400000000001</v>
-      </c>
-      <c r="F20">
+      <c r="D20" s="15">
+        <v>526.30660377358492</v>
+      </c>
+      <c r="E20" s="14">
+        <v>16243.4</v>
+      </c>
+      <c r="F20" s="14">
         <v>31300</v>
       </c>
-      <c r="G20">
-        <v>518.95846645367419</v>
-      </c>
-      <c r="H20">
+      <c r="G20" s="15">
+        <v>518.95846645367408</v>
+      </c>
+      <c r="H20" s="14">
         <v>9347.4</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="14">
         <v>34900</v>
       </c>
-      <c r="J20">
-        <v>267.83381088825212</v>
+      <c r="J20" s="15">
+        <v>267.83381088825217</v>
       </c>
       <c r="K20" s="9">
         <v>95657.38</v>
       </c>
       <c r="L20" s="11">
-        <f t="shared" si="1"/>
+        <f>K20-E20-H20-B20</f>
         <v>36593.480000000018</v>
       </c>
       <c r="M20" s="9">
@@ -2883,29 +2918,29 @@
         <v>22065.27</v>
       </c>
       <c r="Q20" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>89690.650000000009</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="12">
         <v>12571414.259528326</v>
       </c>
-      <c r="S20">
+      <c r="S20" s="13">
         <v>6592143.7427964797</v>
       </c>
-      <c r="T20">
+      <c r="T20" s="14">
         <v>2279164.082051808</v>
       </c>
-      <c r="U20">
+      <c r="U20" s="13">
         <v>2668689.2785886866</v>
       </c>
-      <c r="V20">
+      <c r="V20" s="13">
+        <v>172520.87140650157</v>
+      </c>
+      <c r="W20" s="13">
         <v>3366598.1253060214</v>
       </c>
-      <c r="W20">
+      <c r="X20" s="13">
         <v>2507701.8406211701</v>
-      </c>
-      <c r="X20">
-        <v>172520.87140650157</v>
       </c>
       <c r="Y20" s="5">
         <v>28032</v>
@@ -2954,38 +2989,38 @@
       <c r="A21" s="1">
         <v>40452</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="14">
         <v>36868.5</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="14">
         <v>63700</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="15">
         <v>578.78335949764516</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="14">
         <v>19339.3</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="14">
         <v>35900</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="15">
         <v>538.69916434540391</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="14">
         <v>14996.5</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="14">
         <v>54200</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="15">
         <v>276.68819188191878</v>
       </c>
       <c r="K21" s="9">
         <v>111602.49</v>
       </c>
       <c r="L21" s="11">
-        <f t="shared" si="1"/>
+        <f>K21-E21-H21-B21</f>
         <v>40398.19</v>
       </c>
       <c r="M21" s="9">
@@ -3002,29 +3037,29 @@
         <v>21225.14</v>
       </c>
       <c r="Q21" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>97179.12</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="12">
         <v>13191411.10437122</v>
       </c>
-      <c r="S21">
+      <c r="S21" s="13">
         <v>6848626.9932119371</v>
       </c>
-      <c r="T21">
+      <c r="T21" s="14">
         <v>2385574.4082294963</v>
       </c>
-      <c r="U21">
+      <c r="U21" s="13">
         <v>2741595.0942719937</v>
       </c>
-      <c r="V21">
+      <c r="V21" s="13">
+        <v>325535.5958992095</v>
+      </c>
+      <c r="W21" s="13">
         <v>3579127.8468699744</v>
       </c>
-      <c r="W21">
+      <c r="X21" s="13">
         <v>2689048.8341113916</v>
-      </c>
-      <c r="X21">
-        <v>325535.5958992095</v>
       </c>
       <c r="Y21" s="5">
         <v>35648.5</v>
@@ -3073,38 +3108,38 @@
       <c r="A22" s="1">
         <v>40544</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="14">
         <v>39923.5</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="14">
         <v>59100</v>
       </c>
-      <c r="D22">
-        <v>675.52453468697115</v>
-      </c>
-      <c r="E22">
+      <c r="D22" s="15">
+        <v>675.52453468697126</v>
+      </c>
+      <c r="E22" s="14">
         <v>20399.900000000001</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="14">
         <v>31700</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="15">
         <v>643.52996845425878</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="14">
         <v>16553.3</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="14">
         <v>57600</v>
       </c>
-      <c r="J22">
-        <v>287.3836805555556</v>
+      <c r="J22" s="15">
+        <v>287.38368055555554</v>
       </c>
       <c r="K22" s="9">
         <v>111675.1</v>
       </c>
       <c r="L22" s="11">
-        <f t="shared" si="1"/>
+        <f>K22-E22-H22-B22</f>
         <v>34798.400000000009</v>
       </c>
       <c r="M22" s="9">
@@ -3121,29 +3156,29 @@
         <v>17237.54</v>
       </c>
       <c r="Q22" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>81930.649999999994</v>
       </c>
-      <c r="R22">
+      <c r="R22" s="12">
         <v>13993761.502079191</v>
       </c>
-      <c r="S22">
+      <c r="S22" s="13">
         <v>7151617.1522820862</v>
       </c>
-      <c r="T22">
+      <c r="T22" s="14">
         <v>2522904.6189308008</v>
       </c>
-      <c r="U22">
+      <c r="U22" s="13">
         <v>2837139.220010554</v>
       </c>
-      <c r="V22">
+      <c r="V22" s="13">
+        <v>488767.19641397812</v>
+      </c>
+      <c r="W22" s="13">
         <v>3809721.3211188125</v>
       </c>
-      <c r="W22">
+      <c r="X22" s="13">
         <v>2816388.0066770408</v>
-      </c>
-      <c r="X22">
-        <v>488767.19641397812</v>
       </c>
       <c r="Y22" s="5">
         <v>46981.99</v>
@@ -3192,38 +3227,38 @@
       <c r="A23" s="1">
         <v>40634</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="14">
         <v>48601.1</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="14">
         <v>62600</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="15">
         <v>776.37539936102235</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="14">
         <v>23595.4</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="14">
         <v>30700</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="15">
         <v>768.57980456026064</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="14">
         <v>15839.3</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="14">
         <v>47600</v>
       </c>
-      <c r="J23">
-        <v>332.75840336134456</v>
+      <c r="J23" s="15">
+        <v>332.75840336134451</v>
       </c>
       <c r="K23" s="9">
         <v>133498.12</v>
       </c>
       <c r="L23" s="11">
-        <f t="shared" si="1"/>
+        <f>K23-E23-H23-B23</f>
         <v>45462.32</v>
       </c>
       <c r="M23" s="9">
@@ -3240,29 +3275,29 @@
         <v>22496.33</v>
       </c>
       <c r="Q23" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>104823.12</v>
       </c>
-      <c r="R23">
+      <c r="R23" s="12">
         <v>14772183.857705897</v>
       </c>
-      <c r="S23">
+      <c r="S23" s="13">
         <v>7418093.5453640958</v>
       </c>
-      <c r="T23">
+      <c r="T23" s="14">
         <v>2606832.8603954264</v>
       </c>
-      <c r="U23">
+      <c r="U23" s="13">
         <v>2997325.846562813</v>
       </c>
-      <c r="V23">
+      <c r="V23" s="13">
+        <v>552329.70890695648</v>
+      </c>
+      <c r="W23" s="13">
         <v>4157280.6348821651</v>
       </c>
-      <c r="W23">
+      <c r="X23" s="13">
         <v>2959678.7384055606</v>
-      </c>
-      <c r="X23">
-        <v>552329.70890695648</v>
       </c>
       <c r="Y23" s="5">
         <v>51171.33</v>
@@ -3311,38 +3346,38 @@
       <c r="A24" s="1">
         <v>40725</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="14">
         <v>43875.1</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="14">
         <v>57500</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="15">
         <v>763.04521739130428</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="14">
         <v>26263.9</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="14">
         <v>35100</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="15">
         <v>748.25925925925924</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="14">
         <v>12407.9</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="14">
         <v>34800</v>
       </c>
-      <c r="J24">
-        <v>356.54885057471262</v>
+      <c r="J24" s="15">
+        <v>356.54885057471267</v>
       </c>
       <c r="K24" s="9">
         <v>128313.5</v>
       </c>
       <c r="L24" s="11">
-        <f t="shared" si="1"/>
+        <f>K24-E24-H24-B24</f>
         <v>45766.600000000013</v>
       </c>
       <c r="M24" s="9">
@@ -3359,29 +3394,29 @@
         <v>27208.84</v>
       </c>
       <c r="Q24" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>110332.01999999999</v>
       </c>
-      <c r="R24">
+      <c r="R24" s="12">
         <v>15323988.676970577</v>
       </c>
-      <c r="S24">
+      <c r="S24" s="13">
         <v>7619015.6384039819</v>
       </c>
-      <c r="T24">
+      <c r="T24" s="14">
         <v>2655712.482412939</v>
       </c>
-      <c r="U24">
+      <c r="U24" s="13">
         <v>3158789.1014998076</v>
       </c>
-      <c r="V24">
+      <c r="V24" s="13">
+        <v>607082.42482340208</v>
+      </c>
+      <c r="W24" s="13">
         <v>4240917.9711572165</v>
       </c>
-      <c r="W24">
+      <c r="X24" s="13">
         <v>2957528.9413267691</v>
-      </c>
-      <c r="X24">
-        <v>607082.42482340208</v>
       </c>
       <c r="Y24" s="5">
         <v>45190.32</v>
@@ -3430,38 +3465,38 @@
       <c r="A25" s="1">
         <v>40817</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="14">
         <v>49412.6</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="14">
         <v>65300</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="15">
         <v>756.70137825421136</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="14">
         <v>25450.7</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="14">
         <v>34500</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="15">
         <v>737.70144927536239</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="14">
         <v>19489.599999999999</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="14">
         <v>49700</v>
       </c>
-      <c r="J25">
-        <v>392.14486921529175</v>
+      <c r="J25" s="15">
+        <v>392.14486921529169</v>
       </c>
       <c r="K25" s="9">
         <v>141922.38</v>
       </c>
       <c r="L25" s="11">
-        <f t="shared" si="1"/>
+        <f>K25-E25-H25-B25</f>
         <v>47569.480000000018</v>
       </c>
       <c r="M25" s="9">
@@ -3478,29 +3513,29 @@
         <v>24552.63</v>
       </c>
       <c r="Q25" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>112964.31</v>
       </c>
-      <c r="R25">
+      <c r="R25" s="12">
         <v>15834213.48905894</v>
       </c>
-      <c r="S25">
+      <c r="S25" s="13">
         <v>7870544.6306273313</v>
       </c>
-      <c r="T25">
+      <c r="T25" s="14">
         <v>2718822.9441034719</v>
       </c>
-      <c r="U25">
+      <c r="U25" s="13">
         <v>3338700.5263207345</v>
       </c>
-      <c r="V25">
+      <c r="V25" s="13">
+        <v>537543.54752316163</v>
+      </c>
+      <c r="W25" s="13">
         <v>4594792.5117263021</v>
       </c>
-      <c r="W25">
+      <c r="X25" s="13">
         <v>3226190.6712420611</v>
-      </c>
-      <c r="X25">
-        <v>537543.54752316163</v>
       </c>
       <c r="Y25" s="5">
         <v>53510.7</v>
@@ -3549,38 +3584,38 @@
       <c r="A26" s="1">
         <v>40909</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="14">
         <v>46136</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="14">
         <v>58800</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="15">
         <v>784.62585034013614</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="14">
         <v>25627.7</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="14">
         <v>33900</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="15">
         <v>755.97935103244845</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="14">
         <v>18425.5</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="14">
         <v>53800</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="15">
         <v>342.48141263940522</v>
       </c>
       <c r="K26" s="9">
         <v>131032.58</v>
       </c>
       <c r="L26" s="11">
-        <f t="shared" si="1"/>
+        <f>K26-E26-H26-B26</f>
         <v>40843.380000000005</v>
       </c>
       <c r="M26" s="9">
@@ -3597,29 +3632,29 @@
         <v>21430.639999999999</v>
       </c>
       <c r="Q26" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>93672.42</v>
       </c>
-      <c r="R26">
+      <c r="R26" s="12">
         <v>16307509.585385328</v>
       </c>
-      <c r="S26">
+      <c r="S26" s="13">
         <v>8205967.7673712447</v>
       </c>
-      <c r="T26">
+      <c r="T26" s="14">
         <v>2895294.5102326414</v>
       </c>
-      <c r="U26">
+      <c r="U26" s="13">
         <v>3404194.9191731811</v>
       </c>
-      <c r="V26">
+      <c r="V26" s="13">
+        <v>527936.7804366207</v>
+      </c>
+      <c r="W26" s="13">
         <v>4604280.2049528295</v>
       </c>
-      <c r="W26">
+      <c r="X26" s="13">
         <v>3330164.5967811877</v>
-      </c>
-      <c r="X26">
-        <v>527936.7804366207</v>
       </c>
       <c r="Y26" s="5">
         <v>58790.81</v>
@@ -3668,38 +3703,38 @@
       <c r="A27" s="1">
         <v>41000</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="14">
         <v>45475.8</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="14">
         <v>59900</v>
       </c>
-      <c r="D27">
-        <v>759.19532554257091</v>
-      </c>
-      <c r="E27">
+      <c r="D27" s="15">
+        <v>759.19532554257103</v>
+      </c>
+      <c r="E27" s="14">
         <v>26408.799999999999</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="14">
         <v>34100</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="15">
         <v>774.45161290322574</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="14">
         <v>13438.8</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="14">
         <v>39100</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="15">
         <v>343.70332480818411</v>
       </c>
       <c r="K27" s="9">
         <v>131185.35999999999</v>
       </c>
       <c r="L27" s="11">
-        <f t="shared" si="1"/>
+        <f>K27-E27-H27-B27</f>
         <v>45861.959999999977</v>
       </c>
       <c r="M27" s="9">
@@ -3716,29 +3751,29 @@
         <v>25917.89</v>
       </c>
       <c r="Q27" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>107823.46</v>
       </c>
-      <c r="R27">
+      <c r="R27" s="12">
         <v>16803306.857966799</v>
       </c>
-      <c r="S27">
+      <c r="S27" s="13">
         <v>8467608.8705208227</v>
       </c>
-      <c r="T27">
+      <c r="T27" s="14">
         <v>2979195.0217463099</v>
       </c>
-      <c r="U27">
+      <c r="U27" s="13">
         <v>3460167.5017844555</v>
       </c>
-      <c r="V27">
+      <c r="V27" s="13">
+        <v>711761.59570112848</v>
+      </c>
+      <c r="W27" s="13">
         <v>4552773.9253165424</v>
       </c>
-      <c r="W27">
+      <c r="X27" s="13">
         <v>3368200.057102459</v>
-      </c>
-      <c r="X27">
-        <v>711761.59570112848</v>
       </c>
       <c r="Y27" s="5">
         <v>49279.79</v>
@@ -3787,38 +3822,38 @@
       <c r="A28" s="1">
         <v>41091</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="14">
         <v>42688.9</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="14">
         <v>59100</v>
       </c>
-      <c r="D28">
-        <v>722.31641285956016</v>
-      </c>
-      <c r="E28">
+      <c r="D28" s="15">
+        <v>722.31641285956005</v>
+      </c>
+      <c r="E28" s="14">
         <v>25220.9</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="14">
         <v>35200</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="15">
         <v>716.50284090909088</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="14">
         <v>13346.7</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="14">
         <v>38000</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="15">
         <v>351.22894736842107</v>
       </c>
       <c r="K28" s="9">
         <v>125205.07</v>
       </c>
       <c r="L28" s="11">
-        <f t="shared" si="1"/>
+        <f>K28-E28-H28-B28</f>
         <v>43948.570000000014</v>
       </c>
       <c r="M28" s="9">
@@ -3835,29 +3870,29 @@
         <v>31721.439999999999</v>
       </c>
       <c r="Q28" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>118745.62</v>
       </c>
-      <c r="R28">
+      <c r="R28" s="12">
         <v>17193143.772021167</v>
       </c>
-      <c r="S28">
+      <c r="S28" s="13">
         <v>8815214.9780192506</v>
       </c>
-      <c r="T28">
+      <c r="T28" s="14">
         <v>3090437.5203248085</v>
       </c>
-      <c r="U28">
+      <c r="U28" s="13">
         <v>3604800.4103956907</v>
       </c>
-      <c r="V28">
+      <c r="V28" s="13">
+        <v>614046.32991745661</v>
+      </c>
+      <c r="W28" s="13">
         <v>4576881.2860837793</v>
       </c>
-      <c r="W28">
+      <c r="X28" s="13">
         <v>3508236.7527198214</v>
-      </c>
-      <c r="X28">
-        <v>614046.32991745661</v>
       </c>
       <c r="Y28" s="5">
         <v>38180.89</v>
@@ -3906,38 +3941,38 @@
       <c r="A29" s="1">
         <v>41183</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="14">
         <v>46629</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="14">
         <v>62200</v>
       </c>
-      <c r="D29">
-        <v>749.66237942122177</v>
-      </c>
-      <c r="E29">
+      <c r="D29" s="15">
+        <v>749.66237942122189</v>
+      </c>
+      <c r="E29" s="14">
         <v>26366.799999999999</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="14">
         <v>35000</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="15">
         <v>753.33714285714279</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="14">
         <v>17042.400000000001</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="14">
         <v>47900</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="15">
         <v>355.79123173277668</v>
       </c>
       <c r="K29" s="9">
         <v>140010.95000000001</v>
       </c>
       <c r="L29" s="11">
-        <f t="shared" si="1"/>
+        <f>K29-E29-H29-B29</f>
         <v>49972.75</v>
       </c>
       <c r="M29" s="9">
@@ -3954,29 +3989,29 @@
         <v>29856.560000000001</v>
       </c>
       <c r="Q29" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>124456.23999999999</v>
       </c>
-      <c r="R29">
+      <c r="R29" s="12">
         <v>17521597.317052543</v>
       </c>
-      <c r="S29">
+      <c r="S29" s="13">
         <v>9122580.6558175832</v>
       </c>
-      <c r="T29">
+      <c r="T29" s="14">
         <v>3165249.4438109468</v>
       </c>
-      <c r="U29">
+      <c r="U29" s="13">
         <v>3655444.1715251245</v>
       </c>
-      <c r="V29">
+      <c r="V29" s="13">
+        <v>544359.8431839546</v>
+      </c>
+      <c r="W29" s="13">
         <v>4575493.7461304199</v>
       </c>
-      <c r="W29">
+      <c r="X29" s="13">
         <v>3541530.5434154849</v>
-      </c>
-      <c r="X29">
-        <v>544359.8431839546</v>
       </c>
       <c r="Y29" s="5">
         <v>45411.27</v>
@@ -4025,38 +4060,38 @@
       <c r="A30" s="1">
         <v>41275</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="14">
         <v>43242.7</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="14">
         <v>57400</v>
       </c>
-      <c r="D30">
-        <v>753.35714285714289</v>
-      </c>
-      <c r="E30">
+      <c r="D30" s="15">
+        <v>753.35714285714278</v>
+      </c>
+      <c r="E30" s="14">
         <v>25524.6</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="14">
         <v>34200</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="15">
         <v>746.33333333333326</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="14">
         <v>17789.2</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="14">
         <v>52400</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="15">
         <v>339.48854961832063</v>
       </c>
       <c r="K30" s="9">
         <v>124832.97</v>
       </c>
       <c r="L30" s="11">
-        <f t="shared" si="1"/>
+        <f>K30-E30-H30-B30</f>
         <v>38276.47</v>
       </c>
       <c r="M30" s="9">
@@ -4073,29 +4108,29 @@
         <v>25701.07</v>
       </c>
       <c r="Q30" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>102266.65</v>
       </c>
-      <c r="R30">
+      <c r="R30" s="12">
         <v>17588115.768527985</v>
       </c>
-      <c r="S30">
+      <c r="S30" s="13">
         <v>9207029.9248299859</v>
       </c>
-      <c r="T30">
+      <c r="T30" s="14">
         <v>3256074.8884106721</v>
       </c>
-      <c r="U30">
+      <c r="U30" s="13">
         <v>3834952.5708750621</v>
       </c>
-      <c r="V30">
+      <c r="V30" s="13">
+        <v>445976.1724851933</v>
+      </c>
+      <c r="W30" s="13">
         <v>4497289.8886795538</v>
       </c>
-      <c r="W30">
+      <c r="X30" s="13">
         <v>3653207.6767524835</v>
-      </c>
-      <c r="X30">
-        <v>445976.1724851933</v>
       </c>
       <c r="Y30" s="5">
         <v>48267.38</v>
@@ -4144,38 +4179,38 @@
       <c r="A31" s="1">
         <v>41365</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="14">
         <v>40741.800000000003</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="14">
         <v>58400</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="15">
         <v>697.63356164383572</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="14">
         <v>29329.8</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="14">
         <v>41100</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="15">
         <v>713.62043795620434</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="14">
         <v>13590.8</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="14">
         <v>40400</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="15">
         <v>336.40594059405942</v>
       </c>
       <c r="K31" s="9">
         <v>126919.08</v>
       </c>
       <c r="L31" s="11">
-        <f t="shared" si="1"/>
+        <f>K31-E31-H31-B31</f>
         <v>43256.679999999993</v>
       </c>
       <c r="M31" s="9">
@@ -4192,29 +4227,29 @@
         <v>31547.22</v>
       </c>
       <c r="Q31" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>116022.75</v>
       </c>
-      <c r="R31">
+      <c r="R31" s="12">
         <v>17891346.53054893</v>
       </c>
-      <c r="S31">
+      <c r="S31" s="13">
         <v>9543259.573167257</v>
       </c>
-      <c r="T31">
+      <c r="T31" s="14">
         <v>3331609.2101676813</v>
       </c>
-      <c r="U31">
+      <c r="U31" s="13">
         <v>3814947.2124796091</v>
       </c>
-      <c r="V31">
+      <c r="V31" s="13">
+        <v>321509.96882330312</v>
+      </c>
+      <c r="W31" s="13">
         <v>4578479.9889588375</v>
       </c>
-      <c r="W31">
+      <c r="X31" s="13">
         <v>3698459.4230477582</v>
-      </c>
-      <c r="X31">
-        <v>321509.96882330312</v>
       </c>
       <c r="Y31" s="5">
         <v>42443.55</v>
@@ -4263,38 +4298,38 @@
       <c r="A32" s="1">
         <v>41456</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="14">
         <v>43996</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="14">
         <v>59700</v>
       </c>
-      <c r="D32">
-        <v>736.95142378559467</v>
-      </c>
-      <c r="E32">
+      <c r="D32" s="15">
+        <v>736.95142378559456</v>
+      </c>
+      <c r="E32" s="14">
         <v>27066.7</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="14">
         <v>38100</v>
       </c>
-      <c r="G32">
-        <v>710.41207349081355</v>
-      </c>
-      <c r="H32">
+      <c r="G32" s="15">
+        <v>710.41207349081367</v>
+      </c>
+      <c r="H32" s="14">
         <v>16077.6</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="14">
         <v>48500</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="15">
         <v>331.49690721649483</v>
       </c>
       <c r="K32" s="9">
         <v>130658.28</v>
       </c>
       <c r="L32" s="11">
-        <f t="shared" si="1"/>
+        <f>K32-E32-H32-B32</f>
         <v>43517.979999999996</v>
       </c>
       <c r="M32" s="9">
@@ -4311,29 +4346,29 @@
         <v>38188.04</v>
       </c>
       <c r="Q32" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>125493.13</v>
       </c>
-      <c r="R32">
+      <c r="R32" s="12">
         <v>18477381.978828575</v>
       </c>
-      <c r="S32">
+      <c r="S32" s="13">
         <v>9854966.8088167552</v>
       </c>
-      <c r="T32">
+      <c r="T32" s="14">
         <v>3431344.9851499954</v>
       </c>
-      <c r="U32">
+      <c r="U32" s="13">
         <v>3830648.4354663207</v>
       </c>
-      <c r="V32">
+      <c r="V32" s="13">
+        <v>219447.12812375108</v>
+      </c>
+      <c r="W32" s="13">
         <v>4938003.9590304084</v>
       </c>
-      <c r="W32">
+      <c r="X32" s="13">
         <v>3797029.3377586543</v>
-      </c>
-      <c r="X32">
-        <v>219447.12812375108</v>
       </c>
       <c r="Y32" s="5">
         <v>43353.19</v>
@@ -4382,38 +4417,38 @@
       <c r="A33" s="1">
         <v>41548</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="14">
         <v>45687.7</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="14">
         <v>61200</v>
       </c>
-      <c r="D33">
-        <v>746.531045751634</v>
-      </c>
-      <c r="E33">
+      <c r="D33" s="15">
+        <v>746.53104575163388</v>
+      </c>
+      <c r="E33" s="14">
         <v>27493.200000000001</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="14">
         <v>38300</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="15">
         <v>717.83812010443876</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="14">
         <v>18514.099999999999</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="14">
         <v>55000</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="15">
         <v>336.61999999999995</v>
       </c>
       <c r="K33" s="9">
         <v>139425.16</v>
       </c>
       <c r="L33" s="11">
-        <f t="shared" si="1"/>
+        <f>K33-E33-H33-B33</f>
         <v>47730.160000000018</v>
       </c>
       <c r="M33" s="9">
@@ -4430,29 +4465,29 @@
         <v>32945.53</v>
       </c>
       <c r="Q33" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>125868.56</v>
       </c>
-      <c r="R33">
+      <c r="R33" s="12">
         <v>18815622.213848036</v>
       </c>
-      <c r="S33">
+      <c r="S33" s="13">
         <v>9988091.371461574</v>
       </c>
-      <c r="T33">
+      <c r="T33" s="14">
         <v>3503265.2692940808</v>
       </c>
-      <c r="U33">
+      <c r="U33" s="13">
         <v>3916888.5646225493</v>
       </c>
-      <c r="V33">
+      <c r="V33" s="13">
+        <v>336137.78717315971</v>
+      </c>
+      <c r="W33" s="13">
         <v>4816072.5327819949</v>
       </c>
-      <c r="W33">
+      <c r="X33" s="13">
         <v>3744833.3114853222</v>
-      </c>
-      <c r="X33">
-        <v>336137.78717315971</v>
       </c>
       <c r="Y33" s="5">
         <v>46502.13</v>
@@ -4501,38 +4536,38 @@
       <c r="A34" s="1">
         <v>41640</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="14">
         <v>38832.300000000003</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="14">
         <v>52600</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="15">
         <v>738.25665399239551</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="14">
         <v>27533.8</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="14">
         <v>37500</v>
       </c>
-      <c r="G34">
-        <v>734.23466666666673</v>
-      </c>
-      <c r="H34">
+      <c r="G34" s="15">
+        <v>734.23466666666661</v>
+      </c>
+      <c r="H34" s="14">
         <v>17465.3</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="14">
         <v>54000</v>
       </c>
-      <c r="J34">
-        <v>323.43148148148151</v>
+      <c r="J34" s="15">
+        <v>323.43148148148146</v>
       </c>
       <c r="K34" s="9">
         <v>122811.91</v>
       </c>
       <c r="L34" s="11">
-        <f t="shared" si="1"/>
+        <f>K34-E34-H34-B34</f>
         <v>38980.509999999995</v>
       </c>
       <c r="M34" s="9">
@@ -4549,29 +4584,29 @@
         <v>26171.74</v>
       </c>
       <c r="Q34" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>98609.279999999999</v>
       </c>
-      <c r="R34">
+      <c r="R34" s="12">
         <v>18992850.862874415</v>
       </c>
-      <c r="S34">
+      <c r="S34" s="13">
         <v>10015531.065250915</v>
       </c>
-      <c r="T34">
+      <c r="T34" s="14">
         <v>3392918.591742821</v>
       </c>
-      <c r="U34">
+      <c r="U34" s="13">
         <v>3848098.5101650399</v>
       </c>
-      <c r="V34">
+      <c r="V34" s="13">
+        <v>656386.7448643964</v>
+      </c>
+      <c r="W34" s="13">
         <v>5052355.5380409788</v>
       </c>
-      <c r="W34">
+      <c r="X34" s="13">
         <v>3972439.5871897368</v>
-      </c>
-      <c r="X34">
-        <v>656386.7448643964</v>
       </c>
       <c r="Y34" s="5">
         <v>50374.37</v>
@@ -4620,38 +4655,38 @@
       <c r="A35" s="1">
         <v>41730</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="14">
         <v>42256.7</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="14">
         <v>57200</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="15">
         <v>738.75349650349642</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="14">
         <v>30525.1</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="14">
         <v>42000</v>
       </c>
-      <c r="G35">
-        <v>726.78809523809514</v>
-      </c>
-      <c r="H35">
-        <v>16085.999999999998</v>
-      </c>
-      <c r="I35">
+      <c r="G35" s="15">
+        <v>726.78809523809525</v>
+      </c>
+      <c r="H35" s="14">
+        <v>16086</v>
+      </c>
+      <c r="I35" s="14">
         <v>47600</v>
       </c>
-      <c r="J35">
-        <v>337.94117647058818</v>
+      <c r="J35" s="15">
+        <v>337.94117647058823</v>
       </c>
       <c r="K35" s="9">
         <v>132067.04</v>
       </c>
       <c r="L35" s="11">
-        <f t="shared" si="1"/>
+        <f>K35-E35-H35-B35</f>
         <v>43199.240000000005</v>
       </c>
       <c r="M35" s="9">
@@ -4668,29 +4703,29 @@
         <v>31712.54</v>
       </c>
       <c r="Q35" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>112369.12</v>
       </c>
-      <c r="R35">
+      <c r="R35" s="12">
         <v>19651196.218299154</v>
       </c>
-      <c r="S35">
+      <c r="S35" s="13">
         <v>10388033.730045473</v>
       </c>
-      <c r="T35">
+      <c r="T35" s="14">
         <v>3497412.7802177323</v>
       </c>
-      <c r="U35">
+      <c r="U35" s="13">
         <v>4012297.7857093592</v>
       </c>
-      <c r="V35">
+      <c r="V35" s="13">
+        <v>400568.46300917142</v>
+      </c>
+      <c r="W35" s="13">
         <v>5332494.0714715626</v>
       </c>
-      <c r="W35">
+      <c r="X35" s="13">
         <v>3979610.6121541429</v>
-      </c>
-      <c r="X35">
-        <v>400568.46300917142</v>
       </c>
       <c r="Y35" s="5">
         <v>51410.47</v>
@@ -4739,38 +4774,38 @@
       <c r="A36" s="1">
         <v>41821</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="14">
         <v>40302.1</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="14">
         <v>56700</v>
       </c>
-      <c r="D36">
-        <v>710.795414462081</v>
-      </c>
-      <c r="E36">
+      <c r="D36" s="15">
+        <v>710.79541446208111</v>
+      </c>
+      <c r="E36" s="14">
         <v>31780.3</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="14">
         <v>43900</v>
       </c>
-      <c r="G36">
-        <v>723.92482915717551</v>
-      </c>
-      <c r="H36">
+      <c r="G36" s="15">
+        <v>723.9248291571754</v>
+      </c>
+      <c r="H36" s="14">
         <v>9799.2000000000007</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="14">
         <v>33700</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="15">
         <v>290.77744807121661</v>
       </c>
       <c r="K36" s="9">
         <v>125652.54</v>
       </c>
       <c r="L36" s="11">
-        <f t="shared" si="1"/>
+        <f>K36-E36-H36-B36</f>
         <v>43770.939999999995</v>
       </c>
       <c r="M36" s="9">
@@ -4787,29 +4822,29 @@
         <v>36429.01</v>
       </c>
       <c r="Q36" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>116897.04000000001</v>
       </c>
-      <c r="R36">
+      <c r="R36" s="12">
         <v>19819606.247689091</v>
       </c>
-      <c r="S36">
+      <c r="S36" s="13">
         <v>10624804.747115778</v>
       </c>
-      <c r="T36">
+      <c r="T36" s="14">
         <v>3584931.2035691664</v>
       </c>
-      <c r="U36">
+      <c r="U36" s="13">
         <v>4196102.160015394</v>
       </c>
-      <c r="V36">
+      <c r="V36" s="13">
+        <v>26541.754869674605</v>
+      </c>
+      <c r="W36" s="13">
         <v>5268789.197241799</v>
       </c>
-      <c r="W36">
+      <c r="X36" s="13">
         <v>3881562.8151227199</v>
-      </c>
-      <c r="X36">
-        <v>26541.754869674605</v>
       </c>
       <c r="Y36" s="5">
         <v>45184.52</v>
@@ -4858,39 +4893,39 @@
       <c r="A37" s="1">
         <v>41913</v>
       </c>
-      <c r="B37">
-        <v>32504.400000000005</v>
-      </c>
-      <c r="C37">
+      <c r="B37" s="14">
+        <v>32504.400000000001</v>
+      </c>
+      <c r="C37" s="14">
         <v>57000</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="15">
         <v>570.25263157894744</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="14">
         <v>25971</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="14">
         <v>41900</v>
       </c>
-      <c r="G37">
-        <v>619.83293556085914</v>
-      </c>
-      <c r="H37">
+      <c r="G37" s="15">
+        <v>619.83293556085926</v>
+      </c>
+      <c r="H37" s="14">
         <v>11334.6</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="14">
         <v>38900</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="15">
         <v>291.37789203084833</v>
       </c>
       <c r="K37" s="9">
         <v>116274.61</v>
       </c>
       <c r="L37" s="11">
-        <f t="shared" si="1"/>
-        <v>46464.609999999986</v>
+        <f>K37-E37-H37-B37</f>
+        <v>46464.609999999993</v>
       </c>
       <c r="M37" s="9">
         <v>15467.13</v>
@@ -4906,29 +4941,29 @@
         <v>26708.9</v>
       </c>
       <c r="Q37" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>101022.18</v>
       </c>
-      <c r="R37">
+      <c r="R37" s="12">
         <v>20287171.700782072</v>
       </c>
-      <c r="S37">
+      <c r="S37" s="13">
         <v>11122666.235322854</v>
       </c>
-      <c r="T37">
+      <c r="T37" s="14">
         <v>3699448.9719975805</v>
       </c>
-      <c r="U37">
+      <c r="U37" s="13">
         <v>4141726.0300214393</v>
       </c>
-      <c r="V37">
+      <c r="V37" s="13">
+        <v>52637.008662041808</v>
+      </c>
+      <c r="W37" s="13">
         <v>5701326.399800282</v>
       </c>
-      <c r="W37">
+      <c r="X37" s="13">
         <v>4430632.9450221239</v>
-      </c>
-      <c r="X37">
-        <v>52637.008662041808</v>
       </c>
       <c r="Y37" s="5">
         <v>41961.32</v>
@@ -4977,38 +5012,38 @@
       <c r="A38" s="1">
         <v>42005</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="14">
         <v>22729.3</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="14">
         <v>59300</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="15">
         <v>383.29342327150084</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="14">
         <v>20025.400000000001</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="14">
         <v>46300</v>
       </c>
-      <c r="G38">
-        <v>432.51403887688986</v>
-      </c>
-      <c r="H38">
+      <c r="G38" s="15">
+        <v>432.51403887688991</v>
+      </c>
+      <c r="H38" s="14">
         <v>11339.5</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="14">
         <v>43500</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="15">
         <v>260.67816091954023</v>
       </c>
       <c r="K38" s="9">
         <v>90206.02</v>
       </c>
       <c r="L38" s="11">
-        <f t="shared" si="1"/>
+        <f>K38-E38-H38-B38</f>
         <v>36111.819999999992</v>
       </c>
       <c r="M38" s="9">
@@ -5025,29 +5060,29 @@
         <v>20101.95</v>
       </c>
       <c r="Q38" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>64757.759999999995</v>
       </c>
-      <c r="R38">
+      <c r="R38" s="12">
         <v>20258777.460129391</v>
       </c>
-      <c r="S38">
+      <c r="S38" s="13">
         <v>10726219.150283985</v>
       </c>
-      <c r="T38">
+      <c r="T38" s="14">
         <v>3517414.7693713205</v>
       </c>
-      <c r="U38">
+      <c r="U38" s="13">
         <v>4211438.2836570172</v>
       </c>
-      <c r="V38">
+      <c r="V38" s="13">
+        <v>-201416.10490276798</v>
+      </c>
+      <c r="W38" s="13">
         <v>6641017.3748573493</v>
       </c>
-      <c r="W38">
+      <c r="X38" s="13">
         <v>4635896.0131375119</v>
-      </c>
-      <c r="X38">
-        <v>-201416.10490276798</v>
       </c>
       <c r="Y38" s="5">
         <v>45550.21</v>
@@ -5096,38 +5131,38 @@
       <c r="A39" s="1">
         <v>42095</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="14">
         <v>25401.7</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="14">
         <v>61200</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="15">
         <v>415.06045751633985</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="14">
         <v>19094.2</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="14">
         <v>46300</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="15">
         <v>412.40172786177112</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="14">
         <v>10428.299999999999</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="14">
         <v>45700</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="15">
         <v>228.19037199124725</v>
       </c>
       <c r="K39" s="9">
         <v>91457.44</v>
       </c>
       <c r="L39" s="11">
-        <f t="shared" si="1"/>
+        <f>K39-E39-H39-B39</f>
         <v>36533.240000000005</v>
       </c>
       <c r="M39" s="9">
@@ -5144,29 +5179,29 @@
         <v>22625.57</v>
       </c>
       <c r="Q39" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>70307.01999999999</v>
       </c>
-      <c r="R39">
+      <c r="R39" s="12">
         <v>20381260.762166806</v>
       </c>
-      <c r="S39">
+      <c r="S39" s="13">
         <v>10948553.501655739</v>
       </c>
-      <c r="T39">
+      <c r="T39" s="14">
         <v>3615318.7765985015</v>
       </c>
-      <c r="U39">
+      <c r="U39" s="13">
         <v>4025291.0487376177</v>
       </c>
-      <c r="V39">
+      <c r="V39" s="13">
+        <v>-76318.079924611535</v>
+      </c>
+      <c r="W39" s="13">
         <v>5611787.9877560735</v>
       </c>
-      <c r="W39">
+      <c r="X39" s="13">
         <v>3743372.4726565136</v>
-      </c>
-      <c r="X39">
-        <v>-76318.079924611535</v>
       </c>
       <c r="Y39" s="5">
         <v>43775.99</v>
@@ -5215,38 +5250,38 @@
       <c r="A40" s="1">
         <v>42186</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="14">
         <v>21469.200000000001</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="14">
         <v>59400</v>
       </c>
-      <c r="D40">
-        <v>361.43434343434342</v>
-      </c>
-      <c r="E40">
+      <c r="D40" s="15">
+        <v>361.43434343434348</v>
+      </c>
+      <c r="E40" s="14">
         <v>14913.1</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="14">
         <v>38400</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="15">
         <v>388.36197916666669</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="14">
         <v>9435.1</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="14">
         <v>42300</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="15">
         <v>223.05200945626481</v>
       </c>
       <c r="K40" s="9">
         <v>78699.990000000005</v>
       </c>
       <c r="L40" s="11">
-        <f t="shared" si="1"/>
+        <f>K40-E40-H40-B40</f>
         <v>32882.590000000011</v>
       </c>
       <c r="M40" s="9">
@@ -5263,29 +5298,29 @@
         <v>25384.89</v>
       </c>
       <c r="Q40" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>75212.040000000008</v>
       </c>
-      <c r="R40">
+      <c r="R40" s="12">
         <v>21047845.054873828</v>
       </c>
-      <c r="S40">
+      <c r="S40" s="13">
         <v>10789429.432849169</v>
       </c>
-      <c r="T40">
+      <c r="T40" s="14">
         <v>3716770.8452601805</v>
       </c>
-      <c r="U40">
+      <c r="U40" s="13">
         <v>4151065.6448340807</v>
       </c>
-      <c r="V40">
+      <c r="V40" s="13">
+        <v>865957.8351572</v>
+      </c>
+      <c r="W40" s="13">
         <v>5860851.8390876055</v>
       </c>
-      <c r="W40">
+      <c r="X40" s="13">
         <v>4336230.5423144056</v>
-      </c>
-      <c r="X40">
-        <v>865957.8351572</v>
       </c>
       <c r="Y40" s="5">
         <v>28872.84</v>
@@ -5334,38 +5369,38 @@
       <c r="A41" s="1">
         <v>42278</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="14">
         <v>19987.599999999999</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="14">
         <v>64599.999999999993</v>
       </c>
-      <c r="D41">
-        <v>309.40557275541789</v>
-      </c>
-      <c r="E41">
+      <c r="D41" s="15">
+        <v>309.40557275541795</v>
+      </c>
+      <c r="E41" s="14">
         <v>13421.4</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="14">
         <v>40700</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="15">
         <v>329.76412776412775</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="14">
         <v>10575.8</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="14">
         <v>54000</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="15">
         <v>195.84814814814814</v>
       </c>
       <c r="K41" s="9">
         <v>81055.61</v>
       </c>
       <c r="L41" s="11">
-        <f t="shared" si="1"/>
+        <f>K41-E41-H41-B41</f>
         <v>37070.810000000005</v>
       </c>
       <c r="M41" s="9">
@@ -5382,29 +5417,29 @@
         <v>20655.400000000001</v>
       </c>
       <c r="Q41" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>71512.12</v>
       </c>
-      <c r="R41">
+      <c r="R41" s="12">
         <v>21112733.113983989</v>
       </c>
-      <c r="S41">
+      <c r="S41" s="13">
         <v>11046040.701548126</v>
       </c>
-      <c r="T41">
+      <c r="T41" s="14">
         <v>3836201.957113836</v>
       </c>
-      <c r="U41">
+      <c r="U41" s="13">
         <v>4138720.6050737305</v>
       </c>
-      <c r="V41">
+      <c r="V41" s="13">
+        <v>736680.12145148171</v>
+      </c>
+      <c r="W41" s="13">
         <v>5752380.853385278</v>
       </c>
-      <c r="W41">
+      <c r="X41" s="13">
         <v>4397291.1245884625</v>
-      </c>
-      <c r="X41">
-        <v>736680.12145148171</v>
       </c>
       <c r="Y41" s="5">
         <v>30198.880000000001</v>
@@ -5453,38 +5488,38 @@
       <c r="A42" s="1">
         <v>42370</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="14">
         <v>14093.6</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="14">
         <v>62000</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="15">
         <v>227.31612903225806</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="14">
         <v>9657.1</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="14">
         <v>38900</v>
       </c>
-      <c r="G42">
-        <v>248.25449871465295</v>
-      </c>
-      <c r="H42">
+      <c r="G42" s="15">
+        <v>248.25449871465298</v>
+      </c>
+      <c r="H42" s="14">
         <v>8576.4</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="14">
         <v>51100</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="15">
         <v>167.83561643835614</v>
       </c>
       <c r="K42" s="9">
         <v>60468.81</v>
       </c>
       <c r="L42" s="11">
-        <f t="shared" si="1"/>
+        <f>K42-E42-H42-B42</f>
         <v>28141.71</v>
       </c>
       <c r="M42" s="9">
@@ -5501,29 +5536,29 @@
         <v>15259.61</v>
       </c>
       <c r="Q42" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>53317.08</v>
       </c>
-      <c r="R42">
+      <c r="R42" s="12">
         <v>20802603.367413577</v>
       </c>
-      <c r="S42">
+      <c r="S42" s="13">
         <v>11209260.031504337</v>
       </c>
-      <c r="T42">
+      <c r="T42" s="14">
         <v>3839692.8138553174</v>
       </c>
-      <c r="U42">
+      <c r="U42" s="13">
         <v>4189076.6644517588</v>
       </c>
-      <c r="V42">
+      <c r="V42" s="13">
+        <v>606775.48780845059</v>
+      </c>
+      <c r="W42" s="13">
         <v>5541134.2491174331</v>
       </c>
-      <c r="W42">
+      <c r="X42" s="13">
         <v>4583335.87932372</v>
-      </c>
-      <c r="X42">
-        <v>606775.48780845059</v>
       </c>
       <c r="Y42" s="5">
         <v>22411.34</v>
@@ -5572,38 +5607,38 @@
       <c r="A43" s="1">
         <v>42461</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="14">
         <v>18835.7</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="14">
         <v>65800</v>
       </c>
-      <c r="D43">
-        <v>286.25683890577506</v>
-      </c>
-      <c r="E43">
+      <c r="D43" s="15">
+        <v>286.25683890577511</v>
+      </c>
+      <c r="E43" s="14">
         <v>11465.7</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="14">
         <v>41500</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="15">
         <v>276.28192771084338</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="14">
         <v>6519.8</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="14">
         <v>44200</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="15">
         <v>147.50678733031674</v>
       </c>
       <c r="K43" s="9">
         <v>67831.3</v>
       </c>
       <c r="L43" s="11">
-        <f t="shared" si="1"/>
+        <f>K43-E43-H43-B43</f>
         <v>31010.100000000002</v>
       </c>
       <c r="M43" s="9">
@@ -5620,29 +5655,29 @@
         <v>18644.810000000001</v>
       </c>
       <c r="Q43" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>64178</v>
       </c>
-      <c r="R43">
+      <c r="R43" s="12">
         <v>21204878.363577262</v>
       </c>
-      <c r="S43">
+      <c r="S43" s="13">
         <v>11285704.404805763</v>
       </c>
-      <c r="T43">
+      <c r="T43" s="14">
         <v>3897176.8981241276</v>
       </c>
-      <c r="U43">
+      <c r="U43" s="13">
         <v>4306775.3519884609</v>
       </c>
-      <c r="V43">
+      <c r="V43" s="13">
+        <v>586659.93666160014</v>
+      </c>
+      <c r="W43" s="13">
         <v>5407366.8744492214</v>
       </c>
-      <c r="W43">
+      <c r="X43" s="13">
         <v>4278805.1024519103</v>
-      </c>
-      <c r="X43">
-        <v>586659.93666160014</v>
       </c>
       <c r="Y43" s="5">
         <v>22298.11</v>
@@ -5691,38 +5726,38 @@
       <c r="A44" s="1">
         <v>42552</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="14">
         <v>19276.8</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="14">
         <v>62000</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="15">
         <v>310.91612903225803</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="14">
         <v>12191.7</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="14">
         <v>38600</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="15">
         <v>315.84715025906735</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="14">
         <v>6596.2</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="14">
         <v>44200</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="15">
         <v>149.23529411764704</v>
       </c>
       <c r="K44" s="9">
         <v>70918.25</v>
       </c>
       <c r="L44" s="11">
-        <f t="shared" si="1"/>
+        <f>K44-E44-H44-B44</f>
         <v>32853.550000000003</v>
       </c>
       <c r="M44" s="9">
@@ -5739,29 +5774,29 @@
         <v>21042.37</v>
       </c>
       <c r="Q44" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>73594.559999999998</v>
       </c>
-      <c r="R44">
+      <c r="R44" s="12">
         <v>21554481.502362207</v>
       </c>
-      <c r="S44">
+      <c r="S44" s="13">
         <v>11490235.055162176</v>
       </c>
-      <c r="T44">
+      <c r="T44" s="14">
         <v>3971090.5204916252</v>
       </c>
-      <c r="U44">
+      <c r="U44" s="13">
         <v>4509656.3868221827</v>
       </c>
-      <c r="V44">
+      <c r="V44" s="13">
+        <v>386260.53134291759</v>
+      </c>
+      <c r="W44" s="13">
         <v>5561370.0331076644</v>
       </c>
-      <c r="W44">
+      <c r="X44" s="13">
         <v>4364131.0245643603</v>
-      </c>
-      <c r="X44">
-        <v>386260.53134291759</v>
       </c>
       <c r="Y44" s="5">
         <v>18366.060000000001</v>
@@ -5810,38 +5845,38 @@
       <c r="A45" s="1">
         <v>42644</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="14">
         <v>21506.5</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="14">
         <v>65000</v>
       </c>
-      <c r="D45">
-        <v>330.86923076923074</v>
-      </c>
-      <c r="E45">
+      <c r="D45" s="15">
+        <v>330.8692307692308</v>
+      </c>
+      <c r="E45" s="14">
         <v>12876.5</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="14">
         <v>37600</v>
       </c>
-      <c r="G45">
-        <v>342.46010638297867</v>
-      </c>
-      <c r="H45">
+      <c r="G45" s="15">
+        <v>342.46010638297872</v>
+      </c>
+      <c r="H45" s="14">
         <v>9497.2999999999993</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="14">
         <v>59200</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="15">
         <v>160.42736486486484</v>
       </c>
       <c r="K45" s="9">
         <v>82490.66</v>
       </c>
       <c r="L45" s="11">
-        <f t="shared" si="1"/>
+        <f>K45-E45-H45-B45</f>
         <v>38610.36</v>
       </c>
       <c r="M45" s="9">
@@ -5858,29 +5893,29 @@
         <v>19655.45</v>
       </c>
       <c r="Q45" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>75006.92</v>
       </c>
-      <c r="R45">
+      <c r="R45" s="12">
         <v>22120359.240663961</v>
       </c>
-      <c r="S45">
+      <c r="S45" s="13">
         <v>11615937.174554225</v>
       </c>
-      <c r="T45">
+      <c r="T45" s="14">
         <v>4021480.1950132777</v>
       </c>
-      <c r="U45">
+      <c r="U45" s="13">
         <v>4754770.1063342523</v>
       </c>
-      <c r="V45">
+      <c r="V45" s="13">
+        <v>551673.97084670118</v>
+      </c>
+      <c r="W45" s="13">
         <v>5594148.9096931517</v>
       </c>
-      <c r="W45">
+      <c r="X45" s="13">
         <v>4417651.1157776462</v>
-      </c>
-      <c r="X45">
-        <v>551673.97084670118</v>
       </c>
       <c r="Y45" s="5">
         <v>27139.19</v>
@@ -5929,39 +5964,39 @@
       <c r="A46" s="1">
         <v>42736</v>
       </c>
-      <c r="B46">
-        <v>23265</v>
-      </c>
-      <c r="C46">
+      <c r="B46" s="14">
+        <v>23264.9</v>
+      </c>
+      <c r="C46" s="14">
         <v>62600</v>
       </c>
-      <c r="D46">
-        <v>371.64536741214056</v>
-      </c>
-      <c r="E46">
+      <c r="D46" s="15">
+        <v>371.64376996805112</v>
+      </c>
+      <c r="E46" s="14">
         <v>15936.3</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="14">
         <v>41300</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="15">
         <v>385.86682808716711</v>
       </c>
-      <c r="H46">
-        <v>10113.4</v>
-      </c>
-      <c r="I46">
+      <c r="H46" s="14">
+        <v>10106.5</v>
+      </c>
+      <c r="I46" s="14">
         <v>59200</v>
       </c>
-      <c r="J46">
-        <v>170.83445945945945</v>
+      <c r="J46" s="15">
+        <v>170.71790540540539</v>
       </c>
       <c r="K46" s="9">
         <v>82549.960000000006</v>
       </c>
       <c r="L46" s="11">
-        <f t="shared" si="1"/>
-        <v>33235.26</v>
+        <f>K46-E46-H46-B46</f>
+        <v>33242.26</v>
       </c>
       <c r="M46" s="9">
         <v>12277.99</v>
@@ -5977,29 +6012,29 @@
         <v>17538.27</v>
       </c>
       <c r="Q46" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>65627.149999999994</v>
       </c>
-      <c r="R46">
+      <c r="R46" s="12">
         <v>22662083.997911502</v>
       </c>
-      <c r="S46">
+      <c r="S46" s="13">
         <v>11810118.325224254</v>
       </c>
-      <c r="T46">
+      <c r="T46" s="14">
         <v>4076752.6281255586</v>
       </c>
-      <c r="U46">
+      <c r="U46" s="13">
         <v>4831425.1377008511</v>
       </c>
-      <c r="V46">
+      <c r="V46" s="13">
+        <v>544803.57589219965</v>
+      </c>
+      <c r="W46" s="13">
         <v>5847000.9184121126</v>
       </c>
-      <c r="W46">
+      <c r="X46" s="13">
         <v>4448016.5874434747</v>
-      </c>
-      <c r="X46">
-        <v>544803.57589219965</v>
       </c>
       <c r="Y46" s="5">
         <v>34461.08</v>
@@ -6048,39 +6083,39 @@
       <c r="A47" s="1">
         <v>42826</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="14">
         <v>22666.400000000001</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="14">
         <v>64900.000000000007</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="15">
         <v>349.25115562403698</v>
       </c>
-      <c r="E47">
-        <v>14875</v>
-      </c>
-      <c r="F47">
+      <c r="E47" s="14">
+        <v>14874.9</v>
+      </c>
+      <c r="F47" s="14">
         <v>38900</v>
       </c>
-      <c r="G47">
-        <v>382.39074550128538</v>
-      </c>
-      <c r="H47">
-        <v>8382.1</v>
-      </c>
-      <c r="I47">
+      <c r="G47" s="15">
+        <v>382.38817480719797</v>
+      </c>
+      <c r="H47" s="14">
+        <v>8351.4</v>
+      </c>
+      <c r="I47" s="14">
         <v>47600</v>
       </c>
-      <c r="J47">
-        <v>176.09453781512607</v>
+      <c r="J47" s="15">
+        <v>175.44957983193277</v>
       </c>
       <c r="K47" s="9">
         <v>83882.44</v>
       </c>
       <c r="L47" s="11">
-        <f t="shared" si="1"/>
-        <v>37958.94</v>
+        <f>K47-E47-H47-B47</f>
+        <v>37989.740000000005</v>
       </c>
       <c r="M47" s="9">
         <v>14730.62</v>
@@ -6096,29 +6131,29 @@
         <v>22384.41</v>
       </c>
       <c r="Q47" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>81054.070000000007</v>
       </c>
-      <c r="R47">
+      <c r="R47" s="12">
         <v>22663047.684947286</v>
       </c>
-      <c r="S47">
+      <c r="S47" s="13">
         <v>12041454.502124755</v>
       </c>
-      <c r="T47">
+      <c r="T47" s="14">
         <v>4139865.9101166669</v>
       </c>
-      <c r="U47">
+      <c r="U47" s="13">
         <v>4872473.6355969235</v>
       </c>
-      <c r="V47">
+      <c r="V47" s="13">
+        <v>546968.47020662157</v>
+      </c>
+      <c r="W47" s="13">
         <v>5749496.8215705696</v>
       </c>
-      <c r="W47">
+      <c r="X47" s="13">
         <v>4687211.6546682483</v>
-      </c>
-      <c r="X47">
-        <v>546968.47020662157</v>
       </c>
       <c r="Y47" s="5">
         <v>25212.78</v>
@@ -6167,39 +6202,39 @@
       <c r="A48" s="1">
         <v>42917</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="14">
         <v>22363.7</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="14">
         <v>63600</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="15">
         <v>351.63050314465409</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="14">
         <v>13371</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="14">
         <v>35900</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="15">
         <v>372.45125348189418</v>
       </c>
-      <c r="H48">
-        <v>8427.7000000000007</v>
-      </c>
-      <c r="I48">
+      <c r="H48" s="14">
+        <v>8408.5</v>
+      </c>
+      <c r="I48" s="14">
         <v>46400</v>
       </c>
-      <c r="J48">
-        <v>181.63146551724139</v>
+      <c r="J48" s="15">
+        <v>181.21767241379311</v>
       </c>
       <c r="K48" s="9">
         <v>84559.15</v>
       </c>
       <c r="L48" s="11">
-        <f t="shared" si="1"/>
-        <v>40396.75</v>
+        <f>K48-E48-H48-B48</f>
+        <v>40415.949999999997</v>
       </c>
       <c r="M48" s="9">
         <v>15268.12</v>
@@ -6215,29 +6250,29 @@
         <v>25144.34</v>
       </c>
       <c r="Q48" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>88965.66</v>
       </c>
-      <c r="R48">
+      <c r="R48" s="12">
         <v>22958803.249304384</v>
       </c>
-      <c r="S48">
+      <c r="S48" s="13">
         <v>12284664.234620411</v>
       </c>
-      <c r="T48">
+      <c r="T48" s="14">
         <v>4194110.8609399353</v>
       </c>
-      <c r="U48">
+      <c r="U48" s="13">
         <v>4902675.0426377775</v>
       </c>
-      <c r="V48">
+      <c r="V48" s="13">
+        <v>416573.32711609616</v>
+      </c>
+      <c r="W48" s="13">
         <v>5977559.4218991706</v>
       </c>
-      <c r="W48">
+      <c r="X48" s="13">
         <v>4816779.6379090091</v>
-      </c>
-      <c r="X48">
-        <v>416573.32711609616</v>
       </c>
       <c r="Y48" s="5">
         <v>20737.830000000002</v>
@@ -6286,39 +6321,39 @@
       <c r="A49" s="1">
         <v>43009</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="14">
         <v>25082.1</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="14">
         <v>61700</v>
       </c>
-      <c r="D49">
-        <v>406.51701782820089</v>
-      </c>
-      <c r="E49">
+      <c r="D49" s="15">
+        <v>406.51701782820095</v>
+      </c>
+      <c r="E49" s="14">
         <v>14065.1</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="14">
         <v>32299.999999999996</v>
       </c>
-      <c r="G49">
-        <v>435.45201238390104</v>
-      </c>
-      <c r="H49">
-        <v>11770.2</v>
-      </c>
-      <c r="I49">
-        <v>59700</v>
-      </c>
-      <c r="J49">
-        <v>197.15577889447235</v>
+      <c r="G49" s="15">
+        <v>435.45201238390098</v>
+      </c>
+      <c r="H49" s="14">
+        <v>11794.2</v>
+      </c>
+      <c r="I49" s="14">
+        <v>59900</v>
+      </c>
+      <c r="J49" s="15">
+        <v>196.89816360601003</v>
       </c>
       <c r="K49" s="9">
         <v>102555.81</v>
       </c>
       <c r="L49" s="11">
-        <f t="shared" si="1"/>
-        <v>51638.409999999996</v>
+        <f>K49-E49-H49-B49</f>
+        <v>51614.409999999996</v>
       </c>
       <c r="M49" s="9">
         <v>15354.58</v>
@@ -6334,29 +6369,29 @@
         <v>23797.119999999999</v>
       </c>
       <c r="Q49" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>91342.69</v>
       </c>
-      <c r="R49">
+      <c r="R49" s="12">
         <v>23515456.424233135</v>
       </c>
-      <c r="S49">
+      <c r="S49" s="13">
         <v>12312403.457376577</v>
       </c>
-      <c r="T49">
+      <c r="T49" s="14">
         <v>4239242.2798171686</v>
       </c>
-      <c r="U49">
+      <c r="U49" s="13">
         <v>4949058.3065996645</v>
       </c>
-      <c r="V49">
+      <c r="V49" s="13">
+        <v>647884.1543063008</v>
+      </c>
+      <c r="W49" s="13">
         <v>6349275.6112733977</v>
       </c>
-      <c r="W49">
+      <c r="X49" s="13">
         <v>4982407.385139972</v>
-      </c>
-      <c r="X49">
-        <v>647884.1543063008</v>
       </c>
       <c r="Y49" s="5">
         <v>35010.239999999998</v>
@@ -6405,38 +6440,38 @@
       <c r="A50" s="1">
         <v>43101</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="14">
         <v>28280.6</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="14">
         <v>61800</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="15">
         <v>457.61488673139161</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="14">
         <v>19258.599999999999</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="14">
         <v>40700</v>
       </c>
-      <c r="G50">
-        <v>473.18427518427507</v>
-      </c>
-      <c r="H50">
+      <c r="G50" s="15">
+        <v>473.18427518427512</v>
+      </c>
+      <c r="H50" s="14">
         <v>12710.2</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="14">
         <v>61800</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="15">
         <v>205.66666666666669</v>
       </c>
       <c r="K50" s="9">
         <v>101658.09</v>
       </c>
       <c r="L50" s="11">
-        <f t="shared" si="1"/>
+        <f>K50-E50-H50-B50</f>
         <v>41408.689999999995</v>
       </c>
       <c r="M50" s="9">
@@ -6453,29 +6488,29 @@
         <v>20541.27</v>
       </c>
       <c r="Q50" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>77979.430000000008</v>
       </c>
-      <c r="R50">
+      <c r="R50" s="12">
         <v>24631449.516013682</v>
       </c>
-      <c r="S50">
+      <c r="S50" s="13">
         <v>12432101.774976654</v>
       </c>
-      <c r="T50">
+      <c r="T50" s="14">
         <v>4402312.121380914</v>
       </c>
-      <c r="U50">
+      <c r="U50" s="13">
         <v>5148580.1290434068</v>
       </c>
-      <c r="V50">
+      <c r="V50" s="13">
+        <v>864626.66457253089</v>
+      </c>
+      <c r="W50" s="13">
         <v>6895417.1028827745</v>
       </c>
-      <c r="W50">
+      <c r="X50" s="13">
         <v>5111588.276842596</v>
-      </c>
-      <c r="X50">
-        <v>864626.66457253089</v>
       </c>
       <c r="Y50" s="5">
         <v>44219.93</v>
@@ -6524,38 +6559,38 @@
       <c r="A51" s="1">
         <v>43191</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="14">
         <v>32141.7</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="14">
         <v>64599.999999999993</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="15">
         <v>497.54953560371524</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="14">
         <v>19049.7</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="14">
         <v>37200</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="15">
         <v>512.08870967741939</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="14">
         <v>10991.9</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="14">
         <v>52400</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="15">
         <v>209.76908396946564</v>
       </c>
       <c r="K51" s="9">
         <v>108724.63</v>
       </c>
       <c r="L51" s="11">
-        <f t="shared" si="1"/>
+        <f>K51-E51-H51-B51</f>
         <v>46541.330000000016</v>
       </c>
       <c r="M51" s="9">
@@ -6572,29 +6607,29 @@
         <v>24367.48</v>
       </c>
       <c r="Q51" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>87741.11</v>
       </c>
-      <c r="R51">
+      <c r="R51" s="12">
         <v>25604656.999239683</v>
       </c>
-      <c r="S51">
+      <c r="S51" s="13">
         <v>12663776.745814722</v>
       </c>
-      <c r="T51">
+      <c r="T51" s="14">
         <v>4483019.2030490329</v>
       </c>
-      <c r="U51">
+      <c r="U51" s="13">
         <v>5294154.1550518321</v>
       </c>
-      <c r="V51">
+      <c r="V51" s="13">
+        <v>744618.47819138889</v>
+      </c>
+      <c r="W51" s="13">
         <v>7904793.0805827864</v>
       </c>
-      <c r="W51">
+      <c r="X51" s="13">
         <v>5485704.663450079</v>
-      </c>
-      <c r="X51">
-        <v>744618.47819138889</v>
       </c>
       <c r="Y51" s="5">
         <v>45351</v>
@@ -6643,38 +6678,38 @@
       <c r="A52" s="1">
         <v>43282</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="14">
         <v>33808.699999999997</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="14">
         <v>64800</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="15">
         <v>521.7391975308642</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="14">
         <v>20469</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="14">
         <v>37500</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="15">
         <v>545.84</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="14">
         <v>11653.8</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="14">
         <v>51800</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="15">
         <v>224.97683397683397</v>
       </c>
       <c r="K52" s="9">
         <v>110467.25</v>
       </c>
       <c r="L52" s="11">
-        <f t="shared" si="1"/>
+        <f>K52-E52-H52-B52</f>
         <v>44535.75</v>
       </c>
       <c r="M52" s="9">
@@ -6691,29 +6726,29 @@
         <v>26181.96</v>
       </c>
       <c r="Q52" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>88879.59</v>
       </c>
-      <c r="R52">
+      <c r="R52" s="12">
         <v>26173354.100755602</v>
       </c>
-      <c r="S52">
+      <c r="S52" s="13">
         <v>12941008.460548552</v>
       </c>
-      <c r="T52">
+      <c r="T52" s="14">
         <v>4554808.0180548932</v>
       </c>
-      <c r="U52">
+      <c r="U52" s="13">
         <v>5420795.1295125764</v>
       </c>
-      <c r="V52">
+      <c r="V52" s="13">
+        <v>99631.997485177635</v>
+      </c>
+      <c r="W52" s="13">
         <v>8500878.8471398465</v>
       </c>
-      <c r="W52">
+      <c r="X52" s="13">
         <v>5343768.3519854434</v>
-      </c>
-      <c r="X52">
-        <v>99631.997485177635</v>
       </c>
       <c r="Y52" s="5">
         <v>47769.62</v>
@@ -6762,39 +6797,39 @@
       <c r="A53" s="2">
         <v>43374</v>
       </c>
-      <c r="B53" s="3">
-        <v>34817.5</v>
-      </c>
-      <c r="C53" s="3">
-        <v>68900</v>
-      </c>
-      <c r="D53" s="3">
-        <v>505.33381712626988</v>
-      </c>
-      <c r="E53" s="3">
-        <v>19331.3</v>
-      </c>
-      <c r="F53" s="3">
-        <v>34800</v>
-      </c>
-      <c r="G53" s="3">
-        <v>555.49712643678163</v>
-      </c>
-      <c r="H53" s="3">
-        <v>13792.1</v>
-      </c>
-      <c r="I53" s="3">
+      <c r="B53" s="14">
+        <v>34969.5</v>
+      </c>
+      <c r="C53" s="14">
+        <v>69300</v>
+      </c>
+      <c r="D53" s="15">
+        <v>504.61038961038963</v>
+      </c>
+      <c r="E53" s="14">
+        <v>19428.3</v>
+      </c>
+      <c r="F53" s="14">
+        <v>35000</v>
+      </c>
+      <c r="G53" s="15">
+        <v>555.09428571428566</v>
+      </c>
+      <c r="H53" s="14">
+        <v>13792.2</v>
+      </c>
+      <c r="I53" s="14">
         <v>54500</v>
       </c>
-      <c r="J53" s="3">
-        <v>253.06605504587154</v>
+      <c r="J53" s="15">
+        <v>253.06788990825689</v>
       </c>
       <c r="K53" s="9">
         <v>122220.22</v>
       </c>
       <c r="L53" s="11">
-        <f t="shared" si="1"/>
-        <v>54279.319999999992</v>
+        <f>K53-E53-H53-B53</f>
+        <v>54030.22</v>
       </c>
       <c r="M53" s="9">
         <v>16616.29</v>
@@ -6810,29 +6845,29 @@
         <v>23611.58</v>
       </c>
       <c r="Q53" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>88721.86</v>
       </c>
-      <c r="R53" s="3">
+      <c r="R53" s="12">
         <v>26990887.817563914</v>
       </c>
-      <c r="S53" s="3">
+      <c r="S53" s="13">
         <v>13164304.682936516</v>
       </c>
-      <c r="T53" s="3">
+      <c r="T53" s="14">
         <v>4610199.7907630224</v>
       </c>
-      <c r="U53" s="3">
+      <c r="U53" s="13">
         <v>5290549.716283055</v>
       </c>
-      <c r="V53" s="3">
+      <c r="V53" s="13">
+        <v>928963.43382367655</v>
+      </c>
+      <c r="W53" s="13">
         <v>8504621.3882515281</v>
       </c>
-      <c r="W53" s="3">
+      <c r="X53" s="13">
         <v>5507751.1944938814</v>
-      </c>
-      <c r="X53" s="3">
-        <v>928963.43382367655</v>
       </c>
       <c r="Y53" s="5">
         <v>57109.94</v>
@@ -6881,12 +6916,39 @@
       <c r="A54" s="1">
         <v>43466</v>
       </c>
+      <c r="B54" s="14">
+        <v>29615.8</v>
+      </c>
+      <c r="C54" s="14">
+        <v>66900</v>
+      </c>
+      <c r="D54" s="15">
+        <v>442.68759342301939</v>
+      </c>
+      <c r="E54" s="14">
+        <v>17636.3</v>
+      </c>
+      <c r="F54" s="14">
+        <v>38100</v>
+      </c>
+      <c r="G54" s="15">
+        <v>462.89501312335955</v>
+      </c>
+      <c r="H54" s="14">
+        <v>14065.2</v>
+      </c>
+      <c r="I54" s="14">
+        <v>61500</v>
+      </c>
+      <c r="J54" s="15">
+        <v>228.70243902439026</v>
+      </c>
       <c r="K54" s="9">
         <v>102621.41</v>
       </c>
       <c r="L54" s="11">
-        <f t="shared" si="1"/>
-        <v>102621.41</v>
+        <f>K54-E54-H54-B54</f>
+        <v>41304.11</v>
       </c>
       <c r="M54" s="9">
         <v>13809.3</v>
@@ -6902,8 +6964,29 @@
         <v>19780.79</v>
       </c>
       <c r="Q54" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>75427.59</v>
+      </c>
+      <c r="R54" s="12">
+        <v>26880741.570969854</v>
+      </c>
+      <c r="S54" s="13">
+        <v>13337435.576289117</v>
+      </c>
+      <c r="T54" s="14">
+        <v>4660949.9472688744</v>
+      </c>
+      <c r="U54" s="13">
+        <v>5634397.2678556889</v>
+      </c>
+      <c r="V54" s="13">
+        <v>932792.2744227217</v>
+      </c>
+      <c r="W54" s="13">
+        <v>8078108.5455324911</v>
+      </c>
+      <c r="X54" s="13">
+        <v>5762942.0403990382</v>
       </c>
       <c r="Y54" s="5">
         <v>46974.61</v>
@@ -6952,12 +7035,39 @@
       <c r="A55" s="1">
         <v>43556</v>
       </c>
+      <c r="B55" s="14">
+        <v>30046.799999999999</v>
+      </c>
+      <c r="C55" s="14">
+        <v>61500</v>
+      </c>
+      <c r="D55" s="15">
+        <v>488.56585365853658</v>
+      </c>
+      <c r="E55" s="14">
+        <v>16457.5</v>
+      </c>
+      <c r="F55" s="14">
+        <v>33000</v>
+      </c>
+      <c r="G55" s="15">
+        <v>498.71212121212119</v>
+      </c>
+      <c r="H55" s="14">
+        <v>9066.4</v>
+      </c>
+      <c r="I55" s="14">
+        <v>49300</v>
+      </c>
+      <c r="J55" s="15">
+        <v>183.90263691683569</v>
+      </c>
       <c r="K55" s="9">
         <v>101433.75</v>
       </c>
       <c r="L55" s="11">
-        <f t="shared" si="1"/>
-        <v>101433.75</v>
+        <f>K55-E55-H55-B55</f>
+        <v>45863.05</v>
       </c>
       <c r="M55" s="9">
         <v>15775.18</v>
@@ -6973,8 +7083,29 @@
         <v>24732.42</v>
       </c>
       <c r="Q55" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>86698.93</v>
+      </c>
+      <c r="R55" s="12">
+        <v>27011769.249514133</v>
+      </c>
+      <c r="S55" s="13">
+        <v>13586720.948064558</v>
+      </c>
+      <c r="T55" s="14">
+        <v>4766073.3279191805</v>
+      </c>
+      <c r="U55" s="13">
+        <v>5740947.7038890896</v>
+      </c>
+      <c r="V55" s="13">
+        <v>824858.84782338329</v>
+      </c>
+      <c r="W55" s="13">
+        <v>7773612.6655565323</v>
+      </c>
+      <c r="X55" s="13">
+        <v>5680444.2437386131</v>
       </c>
       <c r="Y55" s="5">
         <v>39467.24</v>
@@ -7023,12 +7154,39 @@
       <c r="A56" s="1">
         <v>43647</v>
       </c>
+      <c r="B56" s="14">
+        <v>31747.9</v>
+      </c>
+      <c r="C56" s="14">
+        <v>71300</v>
+      </c>
+      <c r="D56" s="15">
+        <v>445.27208976157084</v>
+      </c>
+      <c r="E56" s="14">
+        <v>15834.8</v>
+      </c>
+      <c r="F56" s="14">
+        <v>33900</v>
+      </c>
+      <c r="G56" s="15">
+        <v>467.1032448377581</v>
+      </c>
+      <c r="H56" s="14">
+        <v>7957.9</v>
+      </c>
+      <c r="I56" s="14">
+        <v>48900</v>
+      </c>
+      <c r="J56" s="15">
+        <v>162.73824130879345</v>
+      </c>
       <c r="K56" s="9">
         <v>103362.52</v>
       </c>
       <c r="L56" s="11">
-        <f t="shared" si="1"/>
-        <v>103362.52</v>
+        <f>K56-E56-H56-B56</f>
+        <v>47821.920000000006</v>
       </c>
       <c r="M56" s="9">
         <v>17027.09</v>
@@ -7044,8 +7202,29 @@
         <v>28536.59</v>
       </c>
       <c r="Q56" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>93912.46</v>
+      </c>
+      <c r="R56" s="12">
+        <v>27015947.148920901</v>
+      </c>
+      <c r="S56" s="13">
+        <v>13851781.558300225</v>
+      </c>
+      <c r="T56" s="14">
+        <v>4826437.9363175239</v>
+      </c>
+      <c r="U56" s="13">
+        <v>5886672.8587770518</v>
+      </c>
+      <c r="V56" s="13">
+        <v>143508.26574846543</v>
+      </c>
+      <c r="W56" s="13">
+        <v>7873600.9607413327</v>
+      </c>
+      <c r="X56" s="13">
+        <v>5566054.430963695</v>
       </c>
       <c r="Y56" s="5">
         <v>37986.65</v>
@@ -7091,12 +7270,39 @@
       <c r="A57" s="1">
         <v>43739</v>
       </c>
+      <c r="B57" s="14">
+        <v>30033.599999999999</v>
+      </c>
+      <c r="C57" s="14">
+        <v>67800</v>
+      </c>
+      <c r="D57" s="15">
+        <v>442.97345132743362</v>
+      </c>
+      <c r="E57" s="14">
+        <v>16958.8</v>
+      </c>
+      <c r="F57" s="14">
+        <v>37800</v>
+      </c>
+      <c r="G57" s="15">
+        <v>448.64550264550269</v>
+      </c>
+      <c r="H57" s="14">
+        <v>10543.6</v>
+      </c>
+      <c r="I57" s="14">
+        <v>60200</v>
+      </c>
+      <c r="J57" s="15">
+        <v>175.14285714285714</v>
+      </c>
       <c r="K57" s="9">
         <v>111268.93</v>
       </c>
       <c r="L57" s="11">
-        <f t="shared" si="1"/>
-        <v>111268.93</v>
+        <f>K57-E57-H57-B57</f>
+        <v>53732.929999999986</v>
       </c>
       <c r="M57" s="9">
         <v>16194.38</v>
@@ -7112,8 +7318,36 @@
         <v>25950.49</v>
       </c>
       <c r="Q57" s="11">
+        <f t="shared" si="1"/>
+        <v>97313.200000000012</v>
+      </c>
+      <c r="R57" s="16">
+        <f>AVERAGE(R54:R56)</f>
+        <v>26969485.989801627</v>
+      </c>
+      <c r="S57" s="16">
+        <f t="shared" ref="S57:X57" si="2">AVERAGE(S54:S56)</f>
+        <v>13591979.360884635</v>
+      </c>
+      <c r="T57" s="16">
         <f t="shared" si="2"/>
-        <v>97313.200000000012</v>
+        <v>4751153.7371685263</v>
+      </c>
+      <c r="U57" s="16">
+        <f t="shared" si="2"/>
+        <v>5754005.9435072765</v>
+      </c>
+      <c r="V57" s="16">
+        <f t="shared" si="2"/>
+        <v>633719.79599819018</v>
+      </c>
+      <c r="W57" s="16">
+        <f t="shared" si="2"/>
+        <v>7908440.7239434524</v>
+      </c>
+      <c r="X57" s="16">
+        <f t="shared" si="2"/>
+        <v>5669813.5717004491</v>
       </c>
       <c r="Y57" s="5">
         <v>39906.230000000003</v>

--- a/data/data_quarter_new.xlsx
+++ b/data/data_quarter_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\DNS\balance_of_payments_model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEB57B5-D78C-431E-8AEE-934DEE06D122}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF45B8B1-27B3-4DE3-9673-1B708E2B930D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4D6FCDA9-F986-4B56-9356-AA8DCBE05902}"/>
   </bookViews>
@@ -592,9 +592,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{849A7E3F-C9C5-4B1C-8D83-A718E642E720}">
   <dimension ref="A1:AL57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="98" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="98" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M45" sqref="M45"/>
+      <selection pane="bottomLeft" activeCell="AA50" sqref="AA50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -759,7 +759,7 @@
         <v>66411.69</v>
       </c>
       <c r="L2" s="10">
-        <f>K2-E2-H2-B2</f>
+        <f t="shared" ref="L2:L33" si="0">K2-E2-H2-B2</f>
         <v>21322.890000000003</v>
       </c>
       <c r="M2" s="4">
@@ -878,14 +878,14 @@
         <v>75558.48</v>
       </c>
       <c r="L3" s="11">
-        <f>K3-E3-H3-B3</f>
+        <f t="shared" si="0"/>
         <v>25893.579999999994</v>
       </c>
       <c r="M3" s="9">
         <v>8727.56</v>
       </c>
       <c r="N3" s="11">
-        <f t="shared" ref="N3:N57" si="0">K3+M3</f>
+        <f t="shared" ref="N3:N57" si="1">K3+M3</f>
         <v>84286.04</v>
       </c>
       <c r="O3" s="9">
@@ -997,14 +997,14 @@
         <v>78726.47</v>
       </c>
       <c r="L4" s="11">
-        <f>K4-E4-H4-B4</f>
+        <f t="shared" si="0"/>
         <v>28103.269999999993</v>
       </c>
       <c r="M4" s="9">
         <v>9977.17</v>
       </c>
       <c r="N4" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>88703.64</v>
       </c>
       <c r="O4" s="9">
@@ -1014,7 +1014,7 @@
         <v>13521.55</v>
       </c>
       <c r="Q4" s="11">
-        <f t="shared" ref="Q4:Q57" si="1">O4+P4</f>
+        <f t="shared" ref="Q4:Q57" si="2">O4+P4</f>
         <v>55582.5</v>
       </c>
       <c r="R4" s="12">
@@ -1116,14 +1116,14 @@
         <v>76784.759999999995</v>
       </c>
       <c r="L5" s="11">
-        <f>K5-E5-H5-B5</f>
+        <f t="shared" si="0"/>
         <v>31400.759999999991</v>
       </c>
       <c r="M5" s="9">
         <v>9841.3700000000008</v>
       </c>
       <c r="N5" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>86626.12999999999</v>
       </c>
       <c r="O5" s="9">
@@ -1133,7 +1133,7 @@
         <v>12984.08</v>
       </c>
       <c r="Q5" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>64610.12</v>
       </c>
       <c r="R5" s="12">
@@ -1235,14 +1235,14 @@
         <v>70175.789999999994</v>
       </c>
       <c r="L6" s="11">
-        <f>K6-E6-H6-B6</f>
+        <f t="shared" si="0"/>
         <v>26291.78999999999</v>
       </c>
       <c r="M6" s="9">
         <v>8610.0300000000007</v>
       </c>
       <c r="N6" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>78785.819999999992</v>
       </c>
       <c r="O6" s="9">
@@ -1252,7 +1252,7 @@
         <v>11160.13</v>
       </c>
       <c r="Q6" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>53771.78</v>
       </c>
       <c r="R6" s="12">
@@ -1354,14 +1354,14 @@
         <v>81869.7</v>
       </c>
       <c r="L7" s="11">
-        <f>K7-E7-H7-B7</f>
+        <f t="shared" si="0"/>
         <v>31154.299999999992</v>
       </c>
       <c r="M7" s="9">
         <v>10403.08</v>
       </c>
       <c r="N7" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>92272.78</v>
       </c>
       <c r="O7" s="9">
@@ -1371,7 +1371,7 @@
         <v>14288.8</v>
       </c>
       <c r="Q7" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>66977.37</v>
       </c>
       <c r="R7" s="12">
@@ -1473,14 +1473,14 @@
         <v>87081.22</v>
       </c>
       <c r="L8" s="11">
-        <f>K8-E8-H8-B8</f>
+        <f t="shared" si="0"/>
         <v>31634.42</v>
       </c>
       <c r="M8" s="9">
         <v>12066.04</v>
       </c>
       <c r="N8" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>99147.260000000009</v>
       </c>
       <c r="O8" s="9">
@@ -1490,7 +1490,7 @@
         <v>17442.39</v>
       </c>
       <c r="Q8" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>75461.850000000006</v>
       </c>
       <c r="R8" s="12">
@@ -1592,14 +1592,14 @@
         <v>107403.79</v>
       </c>
       <c r="L9" s="11">
-        <f>K9-E9-H9-B9</f>
+        <f t="shared" si="0"/>
         <v>38882.289999999986</v>
       </c>
       <c r="M9" s="9">
         <v>12780.91</v>
       </c>
       <c r="N9" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>120184.7</v>
       </c>
       <c r="O9" s="9">
@@ -1609,7 +1609,7 @@
         <v>17686.599999999999</v>
       </c>
       <c r="Q9" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>87450.450000000012</v>
       </c>
       <c r="R9" s="12">
@@ -1711,14 +1711,14 @@
         <v>108371.77</v>
       </c>
       <c r="L10" s="11">
-        <f>K10-E10-H10-B10</f>
+        <f t="shared" si="0"/>
         <v>34172.069999999992</v>
       </c>
       <c r="M10" s="9">
         <v>11643.23</v>
       </c>
       <c r="N10" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>120015</v>
       </c>
       <c r="O10" s="9">
@@ -1728,7 +1728,7 @@
         <v>15354.16</v>
       </c>
       <c r="Q10" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>75127.92</v>
       </c>
       <c r="R10" s="12">
@@ -1830,14 +1830,14 @@
         <v>126026.05</v>
       </c>
       <c r="L11" s="11">
-        <f>K11-E11-H11-B11</f>
+        <f t="shared" si="0"/>
         <v>40977.25</v>
       </c>
       <c r="M11" s="9">
         <v>14972.27</v>
       </c>
       <c r="N11" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>140998.32</v>
       </c>
       <c r="O11" s="9">
@@ -1847,7 +1847,7 @@
         <v>20201.28</v>
       </c>
       <c r="Q11" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>95008.65</v>
       </c>
       <c r="R11" s="12">
@@ -1949,14 +1949,14 @@
         <v>134472.39000000001</v>
       </c>
       <c r="L12" s="11">
-        <f>K12-E12-H12-B12</f>
+        <f t="shared" si="0"/>
         <v>44366.690000000017</v>
       </c>
       <c r="M12" s="9">
         <v>16316.68</v>
       </c>
       <c r="N12" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>150789.07</v>
       </c>
       <c r="O12" s="9">
@@ -1966,7 +1966,7 @@
         <v>23616.87</v>
       </c>
       <c r="Q12" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>106663.26999999999</v>
       </c>
       <c r="R12" s="12">
@@ -2068,14 +2068,14 @@
         <v>97427.78</v>
       </c>
       <c r="L13" s="11">
-        <f>K13-E13-H13-B13</f>
+        <f t="shared" si="0"/>
         <v>36642.58</v>
       </c>
       <c r="M13" s="9">
         <v>14203.77</v>
       </c>
       <c r="N13" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>111631.55</v>
       </c>
       <c r="O13" s="9">
@@ -2085,7 +2085,7 @@
         <v>18383.169999999998</v>
       </c>
       <c r="Q13" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>89428.23</v>
       </c>
       <c r="R13" s="12">
@@ -2187,14 +2187,14 @@
         <v>57755.12</v>
       </c>
       <c r="L14" s="11">
-        <f>K14-E14-H14-B14</f>
+        <f t="shared" si="0"/>
         <v>22910.120000000006</v>
       </c>
       <c r="M14" s="9">
         <v>9349.4</v>
       </c>
       <c r="N14" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>67104.52</v>
       </c>
       <c r="O14" s="9">
@@ -2204,7 +2204,7 @@
         <v>12516.3</v>
       </c>
       <c r="Q14" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50237.509999999995</v>
       </c>
       <c r="R14" s="12">
@@ -2306,14 +2306,14 @@
         <v>63567.02</v>
       </c>
       <c r="L15" s="11">
-        <f>K15-E15-H15-B15</f>
+        <f t="shared" si="0"/>
         <v>21553.719999999994</v>
       </c>
       <c r="M15" s="9">
         <v>11721.3</v>
       </c>
       <c r="N15" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>75288.319999999992</v>
       </c>
       <c r="O15" s="9">
@@ -2323,7 +2323,7 @@
         <v>15295.38</v>
       </c>
       <c r="Q15" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>57224.729999999996</v>
       </c>
       <c r="R15" s="12">
@@ -2425,14 +2425,14 @@
         <v>81584.639999999999</v>
       </c>
       <c r="L16" s="11">
-        <f>K16-E16-H16-B16</f>
+        <f t="shared" si="0"/>
         <v>28824.639999999999</v>
       </c>
       <c r="M16" s="9">
         <v>12529.62</v>
       </c>
       <c r="N16" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>94114.26</v>
       </c>
       <c r="O16" s="9">
@@ -2442,7 +2442,7 @@
         <v>18218.419999999998</v>
       </c>
       <c r="Q16" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>65061.07</v>
       </c>
       <c r="R16" s="12">
@@ -2544,14 +2544,14 @@
         <v>94247.86</v>
       </c>
       <c r="L17" s="11">
-        <f>K17-E17-H17-B17</f>
+        <f t="shared" si="0"/>
         <v>33156.86</v>
       </c>
       <c r="M17" s="9">
         <v>12196.18</v>
       </c>
       <c r="N17" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>106444.04000000001</v>
       </c>
       <c r="O17" s="9">
@@ -2561,7 +2561,7 @@
         <v>17366.650000000001</v>
       </c>
       <c r="Q17" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>74797.56</v>
       </c>
       <c r="R17" s="12">
@@ -2663,14 +2663,14 @@
         <v>90062.42</v>
       </c>
       <c r="L18" s="11">
-        <f>K18-E18-H18-B18</f>
+        <f t="shared" si="0"/>
         <v>28116.619999999995</v>
       </c>
       <c r="M18" s="9">
         <v>10469.31</v>
       </c>
       <c r="N18" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100531.73</v>
       </c>
       <c r="O18" s="9">
@@ -2680,7 +2680,7 @@
         <v>14316.41</v>
       </c>
       <c r="Q18" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59133.39</v>
       </c>
       <c r="R18" s="12">
@@ -2782,14 +2782,14 @@
         <v>95351.94</v>
       </c>
       <c r="L19" s="11">
-        <f>K19-E19-H19-B19</f>
+        <f t="shared" si="0"/>
         <v>33556.240000000005</v>
       </c>
       <c r="M19" s="9">
         <v>12389.06</v>
       </c>
       <c r="N19" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>107741</v>
       </c>
       <c r="O19" s="9">
@@ -2799,7 +2799,7 @@
         <v>17671.89</v>
       </c>
       <c r="Q19" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>74955.260000000009</v>
       </c>
       <c r="R19" s="12">
@@ -2901,14 +2901,14 @@
         <v>95657.38</v>
       </c>
       <c r="L20" s="11">
-        <f>K20-E20-H20-B20</f>
+        <f t="shared" si="0"/>
         <v>36593.480000000018</v>
       </c>
       <c r="M20" s="9">
         <v>13066.4</v>
       </c>
       <c r="N20" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>108723.78</v>
       </c>
       <c r="O20" s="9">
@@ -2918,7 +2918,7 @@
         <v>22065.27</v>
       </c>
       <c r="Q20" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>89690.650000000009</v>
       </c>
       <c r="R20" s="12">
@@ -3020,14 +3020,14 @@
         <v>111602.49</v>
       </c>
       <c r="L21" s="11">
-        <f>K21-E21-H21-B21</f>
+        <f t="shared" si="0"/>
         <v>40398.19</v>
       </c>
       <c r="M21" s="9">
         <v>13234.18</v>
       </c>
       <c r="N21" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>124836.67000000001</v>
       </c>
       <c r="O21" s="9">
@@ -3037,7 +3037,7 @@
         <v>21225.14</v>
       </c>
       <c r="Q21" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>97179.12</v>
       </c>
       <c r="R21" s="12">
@@ -3139,14 +3139,14 @@
         <v>111675.1</v>
       </c>
       <c r="L22" s="11">
-        <f>K22-E22-H22-B22</f>
+        <f t="shared" si="0"/>
         <v>34798.400000000009</v>
       </c>
       <c r="M22" s="9">
         <v>11603.92</v>
       </c>
       <c r="N22" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>123279.02</v>
       </c>
       <c r="O22" s="9">
@@ -3156,7 +3156,7 @@
         <v>17237.54</v>
       </c>
       <c r="Q22" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>81930.649999999994</v>
       </c>
       <c r="R22" s="12">
@@ -3258,14 +3258,14 @@
         <v>133498.12</v>
       </c>
       <c r="L23" s="11">
-        <f>K23-E23-H23-B23</f>
+        <f t="shared" si="0"/>
         <v>45462.32</v>
       </c>
       <c r="M23" s="9">
         <v>14992.43</v>
       </c>
       <c r="N23" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>148490.54999999999</v>
       </c>
       <c r="O23" s="9">
@@ -3275,7 +3275,7 @@
         <v>22496.33</v>
       </c>
       <c r="Q23" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>104823.12</v>
       </c>
       <c r="R23" s="12">
@@ -3377,14 +3377,14 @@
         <v>128313.5</v>
       </c>
       <c r="L24" s="11">
-        <f>K24-E24-H24-B24</f>
+        <f t="shared" si="0"/>
         <v>45766.600000000013</v>
       </c>
       <c r="M24" s="9">
         <v>16268.66</v>
       </c>
       <c r="N24" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>144582.16</v>
       </c>
       <c r="O24" s="9">
@@ -3394,7 +3394,7 @@
         <v>27208.84</v>
       </c>
       <c r="Q24" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>110332.01999999999</v>
       </c>
       <c r="R24" s="12">
@@ -3496,14 +3496,14 @@
         <v>141922.38</v>
       </c>
       <c r="L25" s="11">
-        <f>K25-E25-H25-B25</f>
+        <f t="shared" si="0"/>
         <v>47569.480000000018</v>
       </c>
       <c r="M25" s="9">
         <v>15174.05</v>
       </c>
       <c r="N25" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>157096.43</v>
       </c>
       <c r="O25" s="9">
@@ -3513,7 +3513,7 @@
         <v>24552.63</v>
       </c>
       <c r="Q25" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>112964.31</v>
       </c>
       <c r="R25" s="12">
@@ -3615,14 +3615,14 @@
         <v>131032.58</v>
       </c>
       <c r="L26" s="11">
-        <f>K26-E26-H26-B26</f>
+        <f t="shared" si="0"/>
         <v>40843.380000000005</v>
       </c>
       <c r="M26" s="9">
         <v>13125.98</v>
       </c>
       <c r="N26" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>144158.56</v>
       </c>
       <c r="O26" s="9">
@@ -3632,7 +3632,7 @@
         <v>21430.639999999999</v>
       </c>
       <c r="Q26" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>93672.42</v>
       </c>
       <c r="R26" s="12">
@@ -3734,14 +3734,14 @@
         <v>131185.35999999999</v>
       </c>
       <c r="L27" s="11">
-        <f>K27-E27-H27-B27</f>
+        <f t="shared" si="0"/>
         <v>45861.959999999977</v>
       </c>
       <c r="M27" s="9">
         <v>15733.96</v>
       </c>
       <c r="N27" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>146919.31999999998</v>
       </c>
       <c r="O27" s="9">
@@ -3751,7 +3751,7 @@
         <v>25917.89</v>
       </c>
       <c r="Q27" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>107823.46</v>
       </c>
       <c r="R27" s="12">
@@ -3853,14 +3853,14 @@
         <v>125205.07</v>
       </c>
       <c r="L28" s="11">
-        <f>K28-E28-H28-B28</f>
+        <f t="shared" si="0"/>
         <v>43948.570000000014</v>
       </c>
       <c r="M28" s="9">
         <v>16347.91</v>
       </c>
       <c r="N28" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>141552.98000000001</v>
       </c>
       <c r="O28" s="9">
@@ -3870,7 +3870,7 @@
         <v>31721.439999999999</v>
       </c>
       <c r="Q28" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>118745.62</v>
       </c>
       <c r="R28" s="12">
@@ -3972,14 +3972,14 @@
         <v>140010.95000000001</v>
       </c>
       <c r="L29" s="11">
-        <f>K29-E29-H29-B29</f>
+        <f t="shared" si="0"/>
         <v>49972.75</v>
       </c>
       <c r="M29" s="9">
         <v>17132.169999999998</v>
       </c>
       <c r="N29" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>157143.12</v>
       </c>
       <c r="O29" s="9">
@@ -3989,7 +3989,7 @@
         <v>29856.560000000001</v>
       </c>
       <c r="Q29" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>124456.23999999999</v>
       </c>
       <c r="R29" s="12">
@@ -4091,14 +4091,14 @@
         <v>124832.97</v>
       </c>
       <c r="L30" s="11">
-        <f>K30-E30-H30-B30</f>
+        <f t="shared" si="0"/>
         <v>38276.47</v>
       </c>
       <c r="M30" s="9">
         <v>15235.31</v>
       </c>
       <c r="N30" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>140068.28</v>
       </c>
       <c r="O30" s="9">
@@ -4108,7 +4108,7 @@
         <v>25701.07</v>
       </c>
       <c r="Q30" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>102266.65</v>
       </c>
       <c r="R30" s="12">
@@ -4210,14 +4210,14 @@
         <v>126919.08</v>
       </c>
       <c r="L31" s="11">
-        <f>K31-E31-H31-B31</f>
+        <f t="shared" si="0"/>
         <v>43256.679999999993</v>
       </c>
       <c r="M31" s="9">
         <v>17890.66</v>
       </c>
       <c r="N31" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>144809.74</v>
       </c>
       <c r="O31" s="9">
@@ -4227,7 +4227,7 @@
         <v>31547.22</v>
       </c>
       <c r="Q31" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>116022.75</v>
       </c>
       <c r="R31" s="12">
@@ -4329,14 +4329,14 @@
         <v>130658.28</v>
       </c>
       <c r="L32" s="11">
-        <f>K32-E32-H32-B32</f>
+        <f t="shared" si="0"/>
         <v>43517.979999999996</v>
       </c>
       <c r="M32" s="9">
         <v>18386.349999999999</v>
       </c>
       <c r="N32" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>149044.63</v>
       </c>
       <c r="O32" s="9">
@@ -4346,7 +4346,7 @@
         <v>38188.04</v>
       </c>
       <c r="Q32" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>125493.13</v>
       </c>
       <c r="R32" s="12">
@@ -4448,14 +4448,14 @@
         <v>139425.16</v>
       </c>
       <c r="L33" s="11">
-        <f>K33-E33-H33-B33</f>
+        <f t="shared" si="0"/>
         <v>47730.160000000018</v>
       </c>
       <c r="M33" s="9">
         <v>18610.189999999999</v>
       </c>
       <c r="N33" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>158035.35</v>
       </c>
       <c r="O33" s="9">
@@ -4465,7 +4465,7 @@
         <v>32945.53</v>
       </c>
       <c r="Q33" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>125868.56</v>
       </c>
       <c r="R33" s="12">
@@ -4567,14 +4567,14 @@
         <v>122811.91</v>
       </c>
       <c r="L34" s="11">
-        <f>K34-E34-H34-B34</f>
+        <f t="shared" ref="L34:L57" si="3">K34-E34-H34-B34</f>
         <v>38980.509999999995</v>
       </c>
       <c r="M34" s="9">
         <v>15099.28</v>
       </c>
       <c r="N34" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>137911.19</v>
       </c>
       <c r="O34" s="9">
@@ -4584,7 +4584,7 @@
         <v>26171.74</v>
       </c>
       <c r="Q34" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>98609.279999999999</v>
       </c>
       <c r="R34" s="12">
@@ -4686,14 +4686,14 @@
         <v>132067.04</v>
       </c>
       <c r="L35" s="11">
-        <f>K35-E35-H35-B35</f>
+        <f t="shared" si="3"/>
         <v>43199.240000000005</v>
       </c>
       <c r="M35" s="9">
         <v>17334.150000000001</v>
       </c>
       <c r="N35" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>149401.19</v>
       </c>
       <c r="O35" s="9">
@@ -4703,7 +4703,7 @@
         <v>31712.54</v>
       </c>
       <c r="Q35" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>112369.12</v>
       </c>
       <c r="R35" s="12">
@@ -4805,14 +4805,14 @@
         <v>125652.54</v>
       </c>
       <c r="L36" s="11">
-        <f>K36-E36-H36-B36</f>
+        <f t="shared" si="3"/>
         <v>43770.939999999995</v>
       </c>
       <c r="M36" s="9">
         <v>17843.93</v>
       </c>
       <c r="N36" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>143496.47</v>
       </c>
       <c r="O36" s="9">
@@ -4822,7 +4822,7 @@
         <v>36429.01</v>
       </c>
       <c r="Q36" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>116897.04000000001</v>
       </c>
       <c r="R36" s="12">
@@ -4924,14 +4924,14 @@
         <v>116274.61</v>
       </c>
       <c r="L37" s="11">
-        <f>K37-E37-H37-B37</f>
+        <f t="shared" si="3"/>
         <v>46464.609999999993</v>
       </c>
       <c r="M37" s="9">
         <v>15467.13</v>
       </c>
       <c r="N37" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>131741.74</v>
       </c>
       <c r="O37" s="9">
@@ -4941,7 +4941,7 @@
         <v>26708.9</v>
       </c>
       <c r="Q37" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>101022.18</v>
       </c>
       <c r="R37" s="12">
@@ -5043,14 +5043,14 @@
         <v>90206.02</v>
       </c>
       <c r="L38" s="11">
-        <f>K38-E38-H38-B38</f>
+        <f t="shared" si="3"/>
         <v>36111.819999999992</v>
       </c>
       <c r="M38" s="9">
         <v>11714.64</v>
       </c>
       <c r="N38" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>101920.66</v>
       </c>
       <c r="O38" s="9">
@@ -5060,7 +5060,7 @@
         <v>20101.95</v>
       </c>
       <c r="Q38" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>64757.759999999995</v>
       </c>
       <c r="R38" s="12">
@@ -5162,14 +5162,14 @@
         <v>91457.44</v>
       </c>
       <c r="L39" s="11">
-        <f>K39-E39-H39-B39</f>
+        <f t="shared" si="3"/>
         <v>36533.240000000005</v>
       </c>
       <c r="M39" s="9">
         <v>13062.82</v>
       </c>
       <c r="N39" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>104520.26000000001</v>
       </c>
       <c r="O39" s="9">
@@ -5179,7 +5179,7 @@
         <v>22625.57</v>
       </c>
       <c r="Q39" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>70307.01999999999</v>
       </c>
       <c r="R39" s="12">
@@ -5281,14 +5281,14 @@
         <v>78699.990000000005</v>
       </c>
       <c r="L40" s="11">
-        <f>K40-E40-H40-B40</f>
+        <f t="shared" si="3"/>
         <v>32882.590000000011</v>
       </c>
       <c r="M40" s="9">
         <v>13150.13</v>
       </c>
       <c r="N40" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>91850.12000000001</v>
       </c>
       <c r="O40" s="9">
@@ -5298,7 +5298,7 @@
         <v>25384.89</v>
       </c>
       <c r="Q40" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>75212.040000000008</v>
       </c>
       <c r="R40" s="12">
@@ -5400,14 +5400,14 @@
         <v>81055.61</v>
       </c>
       <c r="L41" s="11">
-        <f>K41-E41-H41-B41</f>
+        <f t="shared" si="3"/>
         <v>37070.810000000005</v>
       </c>
       <c r="M41" s="9">
         <v>13688.28</v>
       </c>
       <c r="N41" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>94743.89</v>
       </c>
       <c r="O41" s="9">
@@ -5417,7 +5417,7 @@
         <v>20655.400000000001</v>
       </c>
       <c r="Q41" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>71512.12</v>
       </c>
       <c r="R41" s="12">
@@ -5519,14 +5519,14 @@
         <v>60468.81</v>
       </c>
       <c r="L42" s="11">
-        <f>K42-E42-H42-B42</f>
+        <f t="shared" si="3"/>
         <v>28141.71</v>
       </c>
       <c r="M42" s="9">
         <v>10404.09</v>
       </c>
       <c r="N42" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70872.899999999994</v>
       </c>
       <c r="O42" s="9">
@@ -5536,7 +5536,7 @@
         <v>15259.61</v>
       </c>
       <c r="Q42" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>53317.08</v>
       </c>
       <c r="R42" s="12">
@@ -5638,14 +5638,14 @@
         <v>67831.3</v>
       </c>
       <c r="L43" s="11">
-        <f>K43-E43-H43-B43</f>
+        <f t="shared" si="3"/>
         <v>31010.100000000002</v>
       </c>
       <c r="M43" s="9">
         <v>12634.77</v>
       </c>
       <c r="N43" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>80466.070000000007</v>
       </c>
       <c r="O43" s="9">
@@ -5655,7 +5655,7 @@
         <v>18644.810000000001</v>
       </c>
       <c r="Q43" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>64178</v>
       </c>
       <c r="R43" s="12">
@@ -5757,14 +5757,14 @@
         <v>70918.25</v>
       </c>
       <c r="L44" s="11">
-        <f>K44-E44-H44-B44</f>
+        <f t="shared" si="3"/>
         <v>32853.550000000003</v>
       </c>
       <c r="M44" s="9">
         <v>13879.91</v>
       </c>
       <c r="N44" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>84798.16</v>
       </c>
       <c r="O44" s="9">
@@ -5774,7 +5774,7 @@
         <v>21042.37</v>
       </c>
       <c r="Q44" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>73594.559999999998</v>
       </c>
       <c r="R44" s="12">
@@ -5876,14 +5876,14 @@
         <v>82490.66</v>
       </c>
       <c r="L45" s="11">
-        <f>K45-E45-H45-B45</f>
+        <f t="shared" si="3"/>
         <v>38610.36</v>
       </c>
       <c r="M45" s="9">
         <v>13724.81</v>
       </c>
       <c r="N45" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>96215.47</v>
       </c>
       <c r="O45" s="9">
@@ -5893,7 +5893,7 @@
         <v>19655.45</v>
       </c>
       <c r="Q45" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>75006.92</v>
       </c>
       <c r="R45" s="12">
@@ -5995,14 +5995,14 @@
         <v>82549.960000000006</v>
       </c>
       <c r="L46" s="11">
-        <f>K46-E46-H46-B46</f>
+        <f t="shared" si="3"/>
         <v>33242.26</v>
       </c>
       <c r="M46" s="9">
         <v>12277.99</v>
       </c>
       <c r="N46" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>94827.950000000012</v>
       </c>
       <c r="O46" s="9">
@@ -6012,7 +6012,7 @@
         <v>17538.27</v>
       </c>
       <c r="Q46" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>65627.149999999994</v>
       </c>
       <c r="R46" s="12">
@@ -6114,14 +6114,14 @@
         <v>83882.44</v>
       </c>
       <c r="L47" s="11">
-        <f>K47-E47-H47-B47</f>
+        <f t="shared" si="3"/>
         <v>37989.740000000005</v>
       </c>
       <c r="M47" s="9">
         <v>14730.62</v>
       </c>
       <c r="N47" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>98613.06</v>
       </c>
       <c r="O47" s="9">
@@ -6131,7 +6131,7 @@
         <v>22384.41</v>
       </c>
       <c r="Q47" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>81054.070000000007</v>
       </c>
       <c r="R47" s="12">
@@ -6233,14 +6233,14 @@
         <v>84559.15</v>
       </c>
       <c r="L48" s="11">
-        <f>K48-E48-H48-B48</f>
+        <f t="shared" si="3"/>
         <v>40415.949999999997</v>
       </c>
       <c r="M48" s="9">
         <v>15268.12</v>
       </c>
       <c r="N48" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>99827.26999999999</v>
       </c>
       <c r="O48" s="9">
@@ -6250,7 +6250,7 @@
         <v>25144.34</v>
       </c>
       <c r="Q48" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>88965.66</v>
       </c>
       <c r="R48" s="12">
@@ -6352,14 +6352,14 @@
         <v>102555.81</v>
       </c>
       <c r="L49" s="11">
-        <f>K49-E49-H49-B49</f>
+        <f t="shared" si="3"/>
         <v>51614.409999999996</v>
       </c>
       <c r="M49" s="9">
         <v>15354.58</v>
       </c>
       <c r="N49" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>117910.39</v>
       </c>
       <c r="O49" s="9">
@@ -6369,7 +6369,7 @@
         <v>23797.119999999999</v>
       </c>
       <c r="Q49" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>91342.69</v>
       </c>
       <c r="R49" s="12">
@@ -6471,14 +6471,14 @@
         <v>101658.09</v>
       </c>
       <c r="L50" s="11">
-        <f>K50-E50-H50-B50</f>
+        <f t="shared" si="3"/>
         <v>41408.689999999995</v>
       </c>
       <c r="M50" s="9">
         <v>14013.69</v>
       </c>
       <c r="N50" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>115671.78</v>
       </c>
       <c r="O50" s="9">
@@ -6488,7 +6488,7 @@
         <v>20541.27</v>
       </c>
       <c r="Q50" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>77979.430000000008</v>
       </c>
       <c r="R50" s="12">
@@ -6590,14 +6590,14 @@
         <v>108724.63</v>
       </c>
       <c r="L51" s="11">
-        <f>K51-E51-H51-B51</f>
+        <f t="shared" si="3"/>
         <v>46541.330000000016</v>
       </c>
       <c r="M51" s="9">
         <v>16729.759999999998</v>
       </c>
       <c r="N51" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>125454.39</v>
       </c>
       <c r="O51" s="9">
@@ -6607,7 +6607,7 @@
         <v>24367.48</v>
       </c>
       <c r="Q51" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>87741.11</v>
       </c>
       <c r="R51" s="12">
@@ -6709,14 +6709,14 @@
         <v>110467.25</v>
       </c>
       <c r="L52" s="11">
-        <f>K52-E52-H52-B52</f>
+        <f t="shared" si="3"/>
         <v>44535.75</v>
       </c>
       <c r="M52" s="9">
         <v>17399.05</v>
       </c>
       <c r="N52" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>127866.3</v>
       </c>
       <c r="O52" s="9">
@@ -6726,7 +6726,7 @@
         <v>26181.96</v>
       </c>
       <c r="Q52" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>88879.59</v>
       </c>
       <c r="R52" s="12">
@@ -6828,14 +6828,14 @@
         <v>122220.22</v>
       </c>
       <c r="L53" s="11">
-        <f>K53-E53-H53-B53</f>
+        <f t="shared" si="3"/>
         <v>54030.22</v>
       </c>
       <c r="M53" s="9">
         <v>16616.29</v>
       </c>
       <c r="N53" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>138836.51</v>
       </c>
       <c r="O53" s="9">
@@ -6845,7 +6845,7 @@
         <v>23611.58</v>
       </c>
       <c r="Q53" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>88721.86</v>
       </c>
       <c r="R53" s="12">
@@ -6947,14 +6947,14 @@
         <v>102621.41</v>
       </c>
       <c r="L54" s="11">
-        <f>K54-E54-H54-B54</f>
+        <f t="shared" si="3"/>
         <v>41304.11</v>
       </c>
       <c r="M54" s="9">
         <v>13809.3</v>
       </c>
       <c r="N54" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>116430.71</v>
       </c>
       <c r="O54" s="9">
@@ -6964,7 +6964,7 @@
         <v>19780.79</v>
       </c>
       <c r="Q54" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>75427.59</v>
       </c>
       <c r="R54" s="12">
@@ -7066,14 +7066,14 @@
         <v>101433.75</v>
       </c>
       <c r="L55" s="11">
-        <f>K55-E55-H55-B55</f>
+        <f t="shared" si="3"/>
         <v>45863.05</v>
       </c>
       <c r="M55" s="9">
         <v>15775.18</v>
       </c>
       <c r="N55" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>117208.93</v>
       </c>
       <c r="O55" s="9">
@@ -7083,7 +7083,7 @@
         <v>24732.42</v>
       </c>
       <c r="Q55" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>86698.93</v>
       </c>
       <c r="R55" s="12">
@@ -7185,14 +7185,14 @@
         <v>103362.52</v>
       </c>
       <c r="L56" s="11">
-        <f>K56-E56-H56-B56</f>
+        <f t="shared" si="3"/>
         <v>47821.920000000006</v>
       </c>
       <c r="M56" s="9">
         <v>17027.09</v>
       </c>
       <c r="N56" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>120389.61</v>
       </c>
       <c r="O56" s="9">
@@ -7202,7 +7202,7 @@
         <v>28536.59</v>
       </c>
       <c r="Q56" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>93912.46</v>
       </c>
       <c r="R56" s="12">
@@ -7249,6 +7249,9 @@
       </c>
       <c r="AF56" s="4">
         <v>10885.73</v>
+      </c>
+      <c r="AG56">
+        <v>10252.139690907299</v>
       </c>
       <c r="AH56" s="8">
         <v>-7181.04</v>
@@ -7301,14 +7304,14 @@
         <v>111268.93</v>
       </c>
       <c r="L57" s="11">
-        <f>K57-E57-H57-B57</f>
+        <f t="shared" si="3"/>
         <v>53732.929999999986</v>
       </c>
       <c r="M57" s="9">
         <v>16194.38</v>
       </c>
       <c r="N57" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>127463.31</v>
       </c>
       <c r="O57" s="9">
@@ -7318,7 +7321,7 @@
         <v>25950.49</v>
       </c>
       <c r="Q57" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>97313.200000000012</v>
       </c>
       <c r="R57" s="16">
@@ -7326,27 +7329,27 @@
         <v>26969485.989801627</v>
       </c>
       <c r="S57" s="16">
-        <f t="shared" ref="S57:X57" si="2">AVERAGE(S54:S56)</f>
+        <f t="shared" ref="S57:X57" si="4">AVERAGE(S54:S56)</f>
         <v>13591979.360884635</v>
       </c>
       <c r="T57" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4751153.7371685263</v>
       </c>
       <c r="U57" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5754005.9435072765</v>
       </c>
       <c r="V57" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>633719.79599819018</v>
       </c>
       <c r="W57" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7908440.7239434524</v>
       </c>
       <c r="X57" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5669813.5717004491</v>
       </c>
       <c r="Y57" s="5">
@@ -7372,6 +7375,9 @@
       </c>
       <c r="AF57" s="4">
         <v>10160.459999999999</v>
+      </c>
+      <c r="AG57">
+        <v>10049.1328319226</v>
       </c>
       <c r="AH57" s="8">
         <v>-4617.76</v>
